--- a/neck_Data_Variable.xlsx
+++ b/neck_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>244.4420623779297</v>
+        <v>314.1369934082031</v>
       </c>
       <c r="B2" t="n">
-        <v>247.2301483154297</v>
+        <v>318.9413146972656</v>
       </c>
       <c r="C2" t="n">
-        <v>250.2207183837891</v>
+        <v>325.3867797851562</v>
       </c>
       <c r="D2" t="n">
-        <v>254.2440185546875</v>
+        <v>331.00439453125</v>
       </c>
       <c r="E2" t="n">
-        <v>261.21337890625</v>
+        <v>339.2801513671875</v>
       </c>
       <c r="F2" t="n">
-        <v>267.9901123046875</v>
+        <v>350.4887390136719</v>
       </c>
       <c r="G2" t="n">
-        <v>274.8062133789062</v>
+        <v>363.0777282714844</v>
       </c>
       <c r="H2" t="n">
-        <v>281.1396179199219</v>
+        <v>372.9842529296875</v>
       </c>
       <c r="I2" t="n">
-        <v>288.2442626953125</v>
+        <v>381.1767272949219</v>
       </c>
       <c r="J2" t="n">
-        <v>295.6586303710938</v>
+        <v>388.8468017578125</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9773864746094</v>
+        <v>397.0816345214844</v>
       </c>
       <c r="L2" t="n">
-        <v>307.4970703125</v>
+        <v>405.33349609375</v>
       </c>
       <c r="M2" t="n">
-        <v>312.0384826660156</v>
+        <v>441.3095092773438</v>
       </c>
       <c r="N2" t="n">
-        <v>315.76220703125</v>
+        <v>443.0091857910156</v>
       </c>
       <c r="O2" t="n">
-        <v>320.22314453125</v>
+        <v>444.0313415527344</v>
       </c>
       <c r="P2" t="n">
-        <v>324.4006652832031</v>
+        <v>441.9295654296875</v>
       </c>
       <c r="Q2" t="n">
-        <v>329.9349670410156</v>
+        <v>440.4673461914062</v>
       </c>
       <c r="R2" t="n">
-        <v>333.5431518554688</v>
+        <v>439.1416931152344</v>
       </c>
       <c r="S2" t="n">
-        <v>335.3544921875</v>
+        <v>437.6422729492188</v>
       </c>
       <c r="T2" t="n">
-        <v>335.8914184570312</v>
+        <v>434.5156555175781</v>
       </c>
       <c r="U2" t="n">
-        <v>335.8386840820312</v>
+        <v>430.7649536132812</v>
       </c>
       <c r="V2" t="n">
-        <v>335.5017395019531</v>
+        <v>423.8818664550781</v>
       </c>
       <c r="W2" t="n">
-        <v>335.113037109375</v>
+        <v>417.323974609375</v>
       </c>
       <c r="X2" t="n">
-        <v>334.603515625</v>
+        <v>412.1726989746094</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.9868774414062</v>
+        <v>408.0766296386719</v>
       </c>
       <c r="Z2" t="n">
-        <v>332.6941528320312</v>
+        <v>404.6021118164062</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.3511657714844</v>
+        <v>399.96630859375</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.7009582519531</v>
+        <v>395.7662658691406</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.4168090820312</v>
+        <v>392.214599609375</v>
       </c>
       <c r="AD2" t="n">
-        <v>327.6574401855469</v>
+        <v>389.1004943847656</v>
       </c>
       <c r="AE2" t="n">
-        <v>327.2076416015625</v>
+        <v>386.5178833007812</v>
       </c>
       <c r="AF2" t="n">
-        <v>326.9647827148438</v>
+        <v>383.94384765625</v>
       </c>
       <c r="AG2" t="n">
-        <v>326.9132995605469</v>
+        <v>381.4772338867188</v>
       </c>
       <c r="AH2" t="n">
-        <v>326.898681640625</v>
+        <v>379.8429870605469</v>
       </c>
       <c r="AI2" t="n">
-        <v>326.9868774414062</v>
+        <v>378.0846557617188</v>
       </c>
       <c r="AJ2" t="n">
-        <v>327.2532958984375</v>
+        <v>376.8681640625</v>
       </c>
       <c r="AK2" t="n">
-        <v>327.5079956054688</v>
+        <v>375.2505187988281</v>
       </c>
       <c r="AL2" t="n">
-        <v>328.5368041992188</v>
+        <v>373.5196533203125</v>
       </c>
       <c r="AM2" t="n">
-        <v>329.5895080566406</v>
+        <v>371.807861328125</v>
       </c>
       <c r="AN2" t="n">
-        <v>331.1209716796875</v>
+        <v>370.4653625488281</v>
       </c>
       <c r="AO2" t="n">
-        <v>333.9453735351562</v>
+        <v>369.4682312011719</v>
       </c>
       <c r="AP2" t="n">
-        <v>335.3595581054688</v>
+        <v>368.3991088867188</v>
       </c>
       <c r="AQ2" t="n">
-        <v>336.2284851074219</v>
+        <v>367.4617004394531</v>
       </c>
       <c r="AR2" t="n">
-        <v>337.010986328125</v>
+        <v>366.489013671875</v>
       </c>
       <c r="AS2" t="n">
-        <v>338.0586242675781</v>
+        <v>365.938232421875</v>
       </c>
       <c r="AT2" t="n">
-        <v>339.1544189453125</v>
+        <v>365.3496704101562</v>
       </c>
       <c r="AU2" t="n">
-        <v>340.22607421875</v>
+        <v>365.0758666992188</v>
       </c>
       <c r="AV2" t="n">
-        <v>340.7381591796875</v>
+        <v>364.8241882324219</v>
       </c>
       <c r="AW2" t="n">
-        <v>341.208740234375</v>
+        <v>364.77734375</v>
       </c>
       <c r="AX2" t="n">
-        <v>341.0648193359375</v>
+        <v>364.6781005859375</v>
       </c>
       <c r="AY2" t="n">
-        <v>340.8609313964844</v>
+        <v>364.589599609375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>340.6930541992188</v>
+        <v>364.4317626953125</v>
       </c>
       <c r="BA2" t="n">
-        <v>340.5546569824219</v>
+        <v>364.3631591796875</v>
       </c>
       <c r="BB2" t="n">
-        <v>340.4144897460938</v>
+        <v>364.172607421875</v>
       </c>
       <c r="BC2" t="n">
-        <v>339.8172607421875</v>
+        <v>364.0277709960938</v>
       </c>
       <c r="BD2" t="n">
-        <v>338.2115173339844</v>
+        <v>363.6546630859375</v>
       </c>
       <c r="BE2" t="n">
-        <v>336.7384338378906</v>
+        <v>363.1317749023438</v>
       </c>
       <c r="BF2" t="n">
-        <v>335.15771484375</v>
+        <v>362.50927734375</v>
       </c>
       <c r="BG2" t="n">
-        <v>333.5361022949219</v>
+        <v>362.1115417480469</v>
       </c>
       <c r="BH2" t="n">
-        <v>331.668701171875</v>
+        <v>361.197509765625</v>
       </c>
       <c r="BI2" t="n">
-        <v>329.5050048828125</v>
+        <v>358.87109375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>328.3423461914062</v>
+        <v>356.0051879882812</v>
       </c>
       <c r="BK2" t="n">
-        <v>327.540771484375</v>
+        <v>351.9378051757812</v>
       </c>
       <c r="BL2" t="n">
-        <v>326.7352905273438</v>
+        <v>347.9949340820312</v>
       </c>
       <c r="BM2" t="n">
-        <v>325.9923095703125</v>
+        <v>344.2373046875</v>
       </c>
       <c r="BN2" t="n">
-        <v>325.3289794921875</v>
+        <v>340.9000244140625</v>
       </c>
       <c r="BO2" t="n">
-        <v>324.6341552734375</v>
+        <v>334.4298706054688</v>
       </c>
       <c r="BP2" t="n">
-        <v>324.20458984375</v>
+        <v>331.1986083984375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>323.8607482910156</v>
+        <v>328.1072387695312</v>
       </c>
       <c r="BR2" t="n">
-        <v>323.5009765625</v>
+        <v>325.3142700195312</v>
       </c>
       <c r="BS2" t="n">
-        <v>323.159423828125</v>
+        <v>323.1690673828125</v>
       </c>
       <c r="BT2" t="n">
-        <v>322.6884765625</v>
+        <v>321.2423706054688</v>
       </c>
       <c r="BU2" t="n">
-        <v>322.0370178222656</v>
+        <v>319.8796691894531</v>
       </c>
       <c r="BV2" t="n">
-        <v>321.6271362304688</v>
+        <v>318.5071411132812</v>
       </c>
       <c r="BW2" t="n">
-        <v>321.4489135742188</v>
+        <v>317.6033630371094</v>
       </c>
       <c r="BX2" t="n">
-        <v>321.5948181152344</v>
+        <v>317.098388671875</v>
       </c>
       <c r="BY2" t="n">
-        <v>321.61962890625</v>
+        <v>316.836669921875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>321.6224365234375</v>
+        <v>316.8075256347656</v>
       </c>
       <c r="CA2" t="n">
-        <v>321.626708984375</v>
+        <v>318.1115417480469</v>
       </c>
       <c r="CB2" t="n">
-        <v>321.6302185058594</v>
+        <v>320.3504638671875</v>
       </c>
       <c r="CC2" t="n">
-        <v>321.6307983398438</v>
+        <v>324.55712890625</v>
       </c>
       <c r="CD2" t="n">
-        <v>322.0130004882812</v>
+        <v>327.9473571777344</v>
       </c>
       <c r="CE2" t="n">
-        <v>322.797607421875</v>
+        <v>334.5211181640625</v>
       </c>
       <c r="CF2" t="n">
-        <v>323.8797607421875</v>
+        <v>338.0535583496094</v>
       </c>
       <c r="CG2" t="n">
-        <v>324.6114501953125</v>
+        <v>341.0576171875</v>
       </c>
       <c r="CH2" t="n">
-        <v>324.9039306640625</v>
+        <v>346.8475341796875</v>
       </c>
       <c r="CI2" t="n">
-        <v>325.0778503417969</v>
+        <v>351.8932495117188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>325.1223754882812</v>
+        <v>356.0145874023438</v>
       </c>
       <c r="CK2" t="n">
-        <v>325.121337890625</v>
+        <v>358.9824829101562</v>
       </c>
       <c r="CL2" t="n">
-        <v>324.8832702636719</v>
+        <v>361.8306274414062</v>
       </c>
       <c r="CM2" t="n">
-        <v>324.4865417480469</v>
+        <v>365.06201171875</v>
       </c>
       <c r="CN2" t="n">
-        <v>323.8995666503906</v>
+        <v>369.7949523925781</v>
       </c>
       <c r="CO2" t="n">
-        <v>322.9035034179688</v>
+        <v>371.8555297851562</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.9390869140625</v>
+        <v>373.8160705566406</v>
       </c>
       <c r="CQ2" t="n">
-        <v>320.7926025390625</v>
+        <v>375.48388671875</v>
       </c>
       <c r="CR2" t="n">
-        <v>319.9605712890625</v>
+        <v>376.786865234375</v>
       </c>
       <c r="CS2" t="n">
-        <v>319.2403259277344</v>
+        <v>377.8922119140625</v>
       </c>
       <c r="CT2" t="n">
-        <v>318.0025024414062</v>
+        <v>378.05322265625</v>
       </c>
       <c r="CU2" t="n">
-        <v>316.0835266113281</v>
+        <v>378.0671997070312</v>
       </c>
       <c r="CV2" t="n">
-        <v>314.1114196777344</v>
+        <v>377.1436157226562</v>
       </c>
       <c r="CW2" t="n">
-        <v>311.9903564453125</v>
+        <v>373.9761352539062</v>
       </c>
       <c r="CX2" t="n">
-        <v>309.9203796386719</v>
+        <v>368.6181030273438</v>
       </c>
       <c r="CY2" t="n">
-        <v>306.3866882324219</v>
+        <v>366.4539184570312</v>
       </c>
       <c r="CZ2" t="n">
-        <v>303.5960083007812</v>
+        <v>362.4686279296875</v>
       </c>
       <c r="DA2" t="n">
-        <v>302.3989868164062</v>
+        <v>360.1710510253906</v>
       </c>
       <c r="DB2" t="n">
-        <v>301.3130798339844</v>
+        <v>357.3901672363281</v>
       </c>
       <c r="DC2" t="n">
-        <v>300.7668151855469</v>
+        <v>353.115478515625</v>
       </c>
       <c r="DD2" t="n">
-        <v>300.35205078125</v>
+        <v>348.3296203613281</v>
       </c>
       <c r="DE2" t="n">
-        <v>300.1572875976562</v>
+        <v>340.6897583007812</v>
       </c>
       <c r="DF2" t="n">
-        <v>299.8926391601562</v>
+        <v>335.0989074707031</v>
       </c>
       <c r="DG2" t="n">
-        <v>299.8915710449219</v>
+        <v>332.0522766113281</v>
       </c>
       <c r="DH2" t="n">
-        <v>299.8907165527344</v>
+        <v>326.1782836914062</v>
       </c>
       <c r="DI2" t="n">
-        <v>299.878662109375</v>
+        <v>323.522705078125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>300.4540100097656</v>
+        <v>320.0440063476562</v>
       </c>
       <c r="DK2" t="n">
-        <v>302.4497680664062</v>
+        <v>317.1969909667969</v>
       </c>
       <c r="DL2" t="n">
-        <v>304.3013610839844</v>
+        <v>315.9100036621094</v>
       </c>
       <c r="DM2" t="n">
-        <v>306.38134765625</v>
+        <v>314.6856079101562</v>
       </c>
       <c r="DN2" t="n">
-        <v>308.3476867675781</v>
+        <v>313.4119873046875</v>
       </c>
       <c r="DO2" t="n">
-        <v>312.4745788574219</v>
+        <v>312.0834350585938</v>
       </c>
       <c r="DP2" t="n">
-        <v>315.5918884277344</v>
+        <v>311.1785888671875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>318.9230346679688</v>
+        <v>310.3302612304688</v>
       </c>
       <c r="DR2" t="n">
-        <v>322.1505126953125</v>
+        <v>309.9920043945312</v>
       </c>
       <c r="DS2" t="n">
-        <v>327.2284240722656</v>
+        <v>309.8388366699219</v>
       </c>
       <c r="DT2" t="n">
-        <v>329.7908325195312</v>
+        <v>309.7525329589844</v>
       </c>
       <c r="DU2" t="n">
-        <v>334.7514343261719</v>
+        <v>309.7843627929688</v>
       </c>
       <c r="DV2" t="n">
-        <v>338.270263671875</v>
+        <v>309.9598388671875</v>
       </c>
       <c r="DW2" t="n">
-        <v>341.2289123535156</v>
+        <v>316.241455078125</v>
       </c>
       <c r="DX2" t="n">
-        <v>343.1129455566406</v>
+        <v>320.9488525390625</v>
       </c>
       <c r="DY2" t="n">
-        <v>344.1885070800781</v>
+        <v>324.8370666503906</v>
       </c>
       <c r="DZ2" t="n">
-        <v>345.2281494140625</v>
+        <v>331.8961181640625</v>
       </c>
       <c r="EA2" t="n">
-        <v>345.3479614257812</v>
+        <v>335.4146728515625</v>
       </c>
       <c r="EB2" t="n">
-        <v>345.3811645507812</v>
+        <v>346.6871337890625</v>
       </c>
       <c r="EC2" t="n">
-        <v>345.3890686035156</v>
+        <v>353.9672241210938</v>
       </c>
       <c r="ED2" t="n">
-        <v>345.3979187011719</v>
+        <v>360.5953979492188</v>
       </c>
       <c r="EE2" t="n">
-        <v>345.3990173339844</v>
+        <v>370.8924865722656</v>
       </c>
       <c r="EF2" t="n">
-        <v>345.4171447753906</v>
+        <v>385.4442138671875</v>
       </c>
       <c r="EG2" t="n">
-        <v>344.2773742675781</v>
+        <v>398.9565734863281</v>
       </c>
       <c r="EH2" t="n">
-        <v>341.5194702148438</v>
+        <v>405.5861206054688</v>
       </c>
       <c r="EI2" t="n">
-        <v>339.8617858886719</v>
+        <v>416.4617309570312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>336.7515563964844</v>
+        <v>421.4023132324219</v>
       </c>
       <c r="EK2" t="n">
-        <v>334.825927734375</v>
+        <v>429.3309326171875</v>
       </c>
       <c r="EL2" t="n">
-        <v>330.4194641113281</v>
+        <v>432.2084350585938</v>
       </c>
       <c r="EM2" t="n">
-        <v>325.0125732421875</v>
+        <v>436.2907104492188</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.6668701171875</v>
+        <v>438.2052307128906</v>
       </c>
       <c r="EO2" t="n">
-        <v>319.6470031738281</v>
+        <v>441.1004333496094</v>
       </c>
       <c r="EP2" t="n">
-        <v>318.8314819335938</v>
+        <v>443.5124206542969</v>
       </c>
       <c r="EQ2" t="n">
-        <v>317.5596618652344</v>
+        <v>447.3810119628906</v>
       </c>
       <c r="ER2" t="n">
-        <v>317.1705017089844</v>
+        <v>448.3477172851562</v>
       </c>
       <c r="ES2" t="n">
-        <v>316.5466003417969</v>
+        <v>448.7637939453125</v>
       </c>
       <c r="ET2" t="n">
-        <v>316.4526062011719</v>
+        <v>449.604248046875</v>
       </c>
       <c r="EU2" t="n">
-        <v>316.3349609375</v>
+        <v>450.7230224609375</v>
       </c>
       <c r="EV2" t="n">
-        <v>316.0502014160156</v>
+        <v>451.55517578125</v>
       </c>
       <c r="EW2" t="n">
-        <v>315.6849365234375</v>
+        <v>451.5979614257812</v>
       </c>
       <c r="EX2" t="n">
-        <v>315.2997436523438</v>
+        <v>452.3333129882812</v>
       </c>
       <c r="EY2" t="n">
-        <v>315.6691284179688</v>
+        <v>453.4637145996094</v>
       </c>
       <c r="EZ2" t="n">
-        <v>316.3028259277344</v>
+        <v>454.3785400390625</v>
       </c>
       <c r="FA2" t="n">
-        <v>318.4862670898438</v>
+        <v>455.0817565917969</v>
       </c>
       <c r="FB2" t="n">
-        <v>319.905029296875</v>
+        <v>455.2593994140625</v>
       </c>
       <c r="FC2" t="n">
-        <v>321.8799438476562</v>
+        <v>454.0428161621094</v>
       </c>
       <c r="FD2" t="n">
-        <v>322.6858215332031</v>
+        <v>451.1135559082031</v>
       </c>
       <c r="FE2" t="n">
-        <v>322.8313598632812</v>
+        <v>450.663818359375</v>
       </c>
       <c r="FF2" t="n">
-        <v>322.9010620117188</v>
+        <v>450.6579284667969</v>
       </c>
       <c r="FG2" t="n">
-        <v>322.9458923339844</v>
+        <v>449.775146484375</v>
       </c>
       <c r="FH2" t="n">
-        <v>322.9500732421875</v>
+        <v>448.59033203125</v>
       </c>
       <c r="FI2" t="n">
-        <v>322.9497680664062</v>
+        <v>446.1981506347656</v>
       </c>
       <c r="FJ2" t="n">
-        <v>322.864990234375</v>
+        <v>445.3100891113281</v>
       </c>
       <c r="FK2" t="n">
-        <v>322.4822387695312</v>
+        <v>443.9438171386719</v>
       </c>
       <c r="FL2" t="n">
-        <v>320.807861328125</v>
+        <v>443.18701171875</v>
       </c>
       <c r="FM2" t="n">
-        <v>319.9114074707031</v>
+        <v>442.1708374023438</v>
       </c>
       <c r="FN2" t="n">
-        <v>317.9531555175781</v>
+        <v>441.4639892578125</v>
       </c>
       <c r="FO2" t="n">
-        <v>316.0897827148438</v>
+        <v>440.5906677246094</v>
       </c>
       <c r="FP2" t="n">
-        <v>311.7996826171875</v>
+        <v>437.4402465820312</v>
       </c>
       <c r="FQ2" t="n">
-        <v>309.2432556152344</v>
+        <v>433.201171875</v>
       </c>
       <c r="FR2" t="n">
-        <v>304.2446899414062</v>
+        <v>429.3095397949219</v>
       </c>
       <c r="FS2" t="n">
-        <v>303.0185852050781</v>
+        <v>425.7852783203125</v>
       </c>
       <c r="FT2" t="n">
-        <v>303.1490173339844</v>
+        <v>421.5361938476562</v>
       </c>
       <c r="FU2" t="n">
-        <v>304.2461547851562</v>
+        <v>418.9390563964844</v>
       </c>
       <c r="FV2" t="n">
-        <v>304.052490234375</v>
+        <v>410.4564819335938</v>
       </c>
       <c r="FW2" t="n">
-        <v>303.4965209960938</v>
+        <v>404.2363891601562</v>
       </c>
       <c r="FX2" t="n">
-        <v>302.9857788085938</v>
+        <v>401.4514465332031</v>
       </c>
       <c r="FY2" t="n">
-        <v>302.3967895507812</v>
+        <v>399.2055969238281</v>
       </c>
       <c r="FZ2" t="n">
-        <v>301.3367004394531</v>
+        <v>394.41748046875</v>
       </c>
       <c r="GA2" t="n">
-        <v>300.7807006835938</v>
+        <v>392.5264892578125</v>
       </c>
       <c r="GB2" t="n">
-        <v>300.65771484375</v>
+        <v>389.5687561035156</v>
       </c>
       <c r="GC2" t="n">
-        <v>300.4541625976562</v>
+        <v>388.6800537109375</v>
       </c>
       <c r="GD2" t="n">
-        <v>300.4129333496094</v>
+        <v>387.4374694824219</v>
       </c>
       <c r="GE2" t="n">
-        <v>301.0558166503906</v>
+        <v>387.2467651367188</v>
       </c>
       <c r="GF2" t="n">
-        <v>301.6182861328125</v>
+        <v>387.7164916992188</v>
       </c>
       <c r="GG2" t="n">
-        <v>302.5432434082031</v>
+        <v>390.2252807617188</v>
       </c>
       <c r="GH2" t="n">
-        <v>303.0634155273438</v>
+        <v>392.391845703125</v>
       </c>
       <c r="GI2" t="n">
-        <v>304.8192443847656</v>
+        <v>392.68896484375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>306.8646850585938</v>
+        <v>390.8672485351562</v>
       </c>
       <c r="GK2" t="n">
-        <v>308.6698913574219</v>
+        <v>389.4215087890625</v>
       </c>
       <c r="GL2" t="n">
-        <v>308.5350952148438</v>
+        <v>385.4932861328125</v>
       </c>
       <c r="GM2" t="n">
-        <v>308.4026184082031</v>
+        <v>381.3653259277344</v>
       </c>
       <c r="GN2" t="n">
-        <v>307.8493041992188</v>
+        <v>378.7807006835938</v>
       </c>
       <c r="GO2" t="n">
-        <v>306.1239929199219</v>
+        <v>372.3844604492188</v>
       </c>
       <c r="GP2" t="n">
-        <v>304.5974731445312</v>
+        <v>365.43505859375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>303.6702270507812</v>
+        <v>354.6154174804688</v>
       </c>
       <c r="GR2" t="n">
-        <v>302.9239807128906</v>
+        <v>348.5437316894531</v>
       </c>
       <c r="GS2" t="n">
-        <v>301.4665222167969</v>
+        <v>343.3350219726562</v>
       </c>
       <c r="GT2" t="n">
-        <v>300.8056640625</v>
+        <v>340.7421569824219</v>
       </c>
       <c r="GU2" t="n">
-        <v>299.1927795410156</v>
+        <v>335.0719909667969</v>
       </c>
       <c r="GV2" t="n">
-        <v>296.9474792480469</v>
+        <v>330.9859619140625</v>
       </c>
       <c r="GW2" t="n">
-        <v>295.2738037109375</v>
+        <v>329.5413818359375</v>
       </c>
       <c r="GX2" t="n">
-        <v>293.9564514160156</v>
+        <v>327.2632141113281</v>
       </c>
       <c r="GY2" t="n">
-        <v>293.0205993652344</v>
+        <v>325.3033752441406</v>
       </c>
       <c r="GZ2" t="n">
-        <v>292.1509704589844</v>
+        <v>324.7275390625</v>
       </c>
       <c r="HA2" t="n">
-        <v>291.2503356933594</v>
+        <v>324.7524719238281</v>
       </c>
       <c r="HB2" t="n">
-        <v>291.2170715332031</v>
+        <v>324.7841796875</v>
       </c>
       <c r="HC2" t="n">
-        <v>292.5848693847656</v>
+        <v>324.8065795898438</v>
       </c>
       <c r="HD2" t="n">
-        <v>293.9970703125</v>
+        <v>324.8196716308594</v>
       </c>
       <c r="HE2" t="n">
-        <v>294.7744140625</v>
+        <v>324.8552856445312</v>
       </c>
       <c r="HF2" t="n">
-        <v>295.2496948242188</v>
+        <v>326.2725524902344</v>
       </c>
       <c r="HG2" t="n">
-        <v>294.7686157226562</v>
+        <v>330.3310546875</v>
       </c>
       <c r="HH2" t="n">
-        <v>293.6459655761719</v>
+        <v>332.1478576660156</v>
       </c>
       <c r="HI2" t="n">
-        <v>291.5074157714844</v>
+        <v>333.5018310546875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>288.8816528320312</v>
+        <v>337.2117919921875</v>
       </c>
       <c r="HK2" t="n">
-        <v>283.91650390625</v>
+        <v>345.3291320800781</v>
       </c>
       <c r="HL2" t="n">
-        <v>275.7286682128906</v>
+        <v>353.4287109375</v>
       </c>
       <c r="HM2" t="n">
-        <v>267.6535949707031</v>
+        <v>360.6748046875</v>
       </c>
       <c r="HN2" t="n">
-        <v>259.2013549804688</v>
+        <v>370.8294677734375</v>
       </c>
       <c r="HO2" t="n">
-        <v>254.3446502685547</v>
+        <v>386.9039916992188</v>
       </c>
       <c r="HP2" t="n">
-        <v>250.6144104003906</v>
+        <v>394.7983093261719</v>
       </c>
       <c r="HQ2" t="n">
-        <v>246.5010986328125</v>
+        <v>399.58984375</v>
       </c>
       <c r="HR2" t="n">
-        <v>242.1082916259766</v>
+        <v>412.3977355957031</v>
       </c>
       <c r="HS2" t="n">
-        <v>238.2140197753906</v>
+        <v>418.5745239257812</v>
       </c>
       <c r="HT2" t="n">
-        <v>234.6272888183594</v>
+        <v>423.4577026367188</v>
       </c>
       <c r="HU2" t="n">
-        <v>229.5875244140625</v>
+        <v>427.365966796875</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>431.4561462402344</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>435.3020629882812</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>438.4448852539062</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>439.55029296875</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>441.25439453125</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>442.1466674804688</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>442.1551818847656</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>442.1181640625</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>440.3046264648438</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>437.319580078125</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>434.162109375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>430.7138671875</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>423.2216796875</v>
+      </c>
+      <c r="II2" t="n">
+        <v>417.2600708007812</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>409.2772827148438</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>396.1926879882812</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>391.3021850585938</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>381.62158203125</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>366.8994445800781</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>360.0842895507812</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>357.3932495117188</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>346.7346496582031</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>339.4782104492188</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>337.2662963867188</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>331.4715576171875</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>327.7353210449219</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>325.88623046875</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>325.1481628417969</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>323.9403991699219</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>323.9203491210938</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>323.9711303710938</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>325.8881225585938</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>329.0599060058594</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>334.55615234375</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>338.05029296875</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>344.7901000976562</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>350.9813842773438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>361.3222045898438</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>369.5989990234375</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>374.2635498046875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>379.4418640136719</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>385.9267883300781</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>392.1051025390625</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>395.8157653808594</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>400.6150512695312</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>405.13525390625</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>407.199462890625</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>408.865966796875</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>410.6776733398438</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>412.6756286621094</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>414.2043762207031</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>415.3099365234375</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>416.0219116210938</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>416.5501708984375</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>417.0861511230469</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>417.325927734375</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>417.4424438476562</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>417.5379943847656</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>417.614990234375</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>417.6748962402344</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>417.6961975097656</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>417.6712646484375</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>417.47314453125</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>416.9384155273438</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>416.3125610351562</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>415.6277465820312</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>414.7670288085938</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>414.4293823242188</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>414.197265625</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>414.2221069335938</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>414.3259887695312</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>414.7252197265625</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>415.3039245605469</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>416.7628173828125</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>417.8511352539062</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>418.7684326171875</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>419.1244506835938</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>419.2203979492188</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>419.4116516113281</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>419.5405883789062</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>419.8251037597656</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>420.1177673339844</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>420.6527099609375</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>422.2506103515625</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>423.5998229980469</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>424.4982299804688</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>425.7531127929688</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>425.6160888671875</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>425.586669921875</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>428.2544250488281</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>429.8869323730469</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>434.0447387695312</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>438.5535278320312</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>442.9713134765625</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>446.1024169921875</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>448.7615661621094</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>451.7592163085938</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>453.9291687011719</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>460.2074584960938</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>467.1611022949219</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>471.6718139648438</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>475.3137512207031</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>481.3662109375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>480.2471618652344</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>476.52587890625</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>473.7582702636719</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>468.0181274414062</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>459.4622802734375</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>451.6320190429688</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>430.3610229492188</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>410.4314880371094</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>393.7178955078125</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>368.334716796875</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>341.0546264648438</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>326.4172668457031</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>314.8114013671875</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>313.3919982910156</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>315.3581848144531</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>337.8217163085938</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>355.1951599121094</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>362.3794860839844</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>375.7799682617188</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>385.0067749023438</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>389.5934753417969</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>393.3056030273438</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>394.3216552734375</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>391.6839599609375</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>388.3453063964844</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>385.0665283203125</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>394.8150634765625</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>390.1616821289062</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>371.3389282226562</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>358.2623291015625</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>355.2273559570312</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>352.1454467773438</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>350.2505798339844</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>350.0674133300781</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>349.9125366210938</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>351.1104736328125</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>357.0370788574219</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>363.9747619628906</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>369.1251220703125</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>369.5865173339844</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>369.3011474609375</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>369.2597045898438</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>369.256103515625</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>369.2615356445312</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>369.7741394042969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130.7280883789062</v>
+        <v>141.153564453125</v>
       </c>
       <c r="B3" t="n">
-        <v>129.7801361083984</v>
+        <v>140.0915374755859</v>
       </c>
       <c r="C3" t="n">
-        <v>129.1328582763672</v>
+        <v>139.7276000976562</v>
       </c>
       <c r="D3" t="n">
-        <v>130.2604064941406</v>
+        <v>139.8923950195312</v>
       </c>
       <c r="E3" t="n">
-        <v>132.5484619140625</v>
+        <v>141.6998138427734</v>
       </c>
       <c r="F3" t="n">
-        <v>134.6381378173828</v>
+        <v>143.8845977783203</v>
       </c>
       <c r="G3" t="n">
-        <v>138.847900390625</v>
+        <v>146.3038330078125</v>
       </c>
       <c r="H3" t="n">
-        <v>145.9436950683594</v>
+        <v>148.9572448730469</v>
       </c>
       <c r="I3" t="n">
-        <v>152.4784698486328</v>
+        <v>151.4232940673828</v>
       </c>
       <c r="J3" t="n">
-        <v>159.4269409179688</v>
+        <v>153.4200897216797</v>
       </c>
       <c r="K3" t="n">
-        <v>166.3396759033203</v>
+        <v>154.5127258300781</v>
       </c>
       <c r="L3" t="n">
-        <v>171.4591217041016</v>
+        <v>155.1646118164062</v>
       </c>
       <c r="M3" t="n">
-        <v>174.8364562988281</v>
+        <v>154.8784942626953</v>
       </c>
       <c r="N3" t="n">
-        <v>177.2372436523438</v>
+        <v>152.3583831787109</v>
       </c>
       <c r="O3" t="n">
-        <v>173.8304901123047</v>
+        <v>159.1847381591797</v>
       </c>
       <c r="P3" t="n">
-        <v>167.8908081054688</v>
+        <v>158.6563720703125</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.66357421875</v>
+        <v>158.8661499023438</v>
       </c>
       <c r="R3" t="n">
-        <v>153.0613250732422</v>
+        <v>159.4453277587891</v>
       </c>
       <c r="S3" t="n">
-        <v>151.15087890625</v>
+        <v>160.1781768798828</v>
       </c>
       <c r="T3" t="n">
-        <v>151.8757171630859</v>
+        <v>161.7795715332031</v>
       </c>
       <c r="U3" t="n">
-        <v>154.7709350585938</v>
+        <v>163.720703125</v>
       </c>
       <c r="V3" t="n">
-        <v>159.8805389404297</v>
+        <v>168.2939453125</v>
       </c>
       <c r="W3" t="n">
-        <v>165.0623931884766</v>
+        <v>171.7802734375</v>
       </c>
       <c r="X3" t="n">
-        <v>169.0873718261719</v>
+        <v>174.8025360107422</v>
       </c>
       <c r="Y3" t="n">
-        <v>172.6648101806641</v>
+        <v>178.1883239746094</v>
       </c>
       <c r="Z3" t="n">
-        <v>175.6332855224609</v>
+        <v>181.4886322021484</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.6221466064453</v>
+        <v>184.4188995361328</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.2419738769531</v>
+        <v>186.7739868164062</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.071044921875</v>
+        <v>188.7210083007812</v>
       </c>
       <c r="AD3" t="n">
-        <v>184.1109924316406</v>
+        <v>190.3257446289062</v>
       </c>
       <c r="AE3" t="n">
-        <v>184.2398681640625</v>
+        <v>191.4019012451172</v>
       </c>
       <c r="AF3" t="n">
-        <v>182.2219848632812</v>
+        <v>191.9111938476562</v>
       </c>
       <c r="AG3" t="n">
-        <v>179.7350921630859</v>
+        <v>192.2221984863281</v>
       </c>
       <c r="AH3" t="n">
-        <v>177.99658203125</v>
+        <v>191.5585632324219</v>
       </c>
       <c r="AI3" t="n">
-        <v>177.2506713867188</v>
+        <v>190.6429748535156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>177.4242401123047</v>
+        <v>189.1205444335938</v>
       </c>
       <c r="AK3" t="n">
-        <v>178.7501983642578</v>
+        <v>188.4013519287109</v>
       </c>
       <c r="AL3" t="n">
-        <v>181.6264038085938</v>
+        <v>188.2955932617188</v>
       </c>
       <c r="AM3" t="n">
-        <v>184.0363616943359</v>
+        <v>188.3418426513672</v>
       </c>
       <c r="AN3" t="n">
-        <v>185.5002746582031</v>
+        <v>188.3998565673828</v>
       </c>
       <c r="AO3" t="n">
-        <v>187.5179748535156</v>
+        <v>188.4613037109375</v>
       </c>
       <c r="AP3" t="n">
-        <v>189.5943908691406</v>
+        <v>188.5285797119141</v>
       </c>
       <c r="AQ3" t="n">
-        <v>191.3964538574219</v>
+        <v>188.5970153808594</v>
       </c>
       <c r="AR3" t="n">
-        <v>192.8933258056641</v>
+        <v>188.6625061035156</v>
       </c>
       <c r="AS3" t="n">
-        <v>194.2610778808594</v>
+        <v>188.6666107177734</v>
       </c>
       <c r="AT3" t="n">
-        <v>195.4220886230469</v>
+        <v>188.5782318115234</v>
       </c>
       <c r="AU3" t="n">
-        <v>196.5224151611328</v>
+        <v>188.3746948242188</v>
       </c>
       <c r="AV3" t="n">
-        <v>197.0966033935547</v>
+        <v>188.1065368652344</v>
       </c>
       <c r="AW3" t="n">
-        <v>197.0475006103516</v>
+        <v>187.7885437011719</v>
       </c>
       <c r="AX3" t="n">
-        <v>195.9502868652344</v>
+        <v>187.4840850830078</v>
       </c>
       <c r="AY3" t="n">
-        <v>194.4386291503906</v>
+        <v>187.1572570800781</v>
       </c>
       <c r="AZ3" t="n">
-        <v>193.1101837158203</v>
+        <v>186.8154907226562</v>
       </c>
       <c r="BA3" t="n">
-        <v>192.4922943115234</v>
+        <v>186.4398040771484</v>
       </c>
       <c r="BB3" t="n">
-        <v>192.5330352783203</v>
+        <v>186.0892791748047</v>
       </c>
       <c r="BC3" t="n">
-        <v>192.7841186523438</v>
+        <v>185.7442779541016</v>
       </c>
       <c r="BD3" t="n">
-        <v>195.44287109375</v>
+        <v>185.1270294189453</v>
       </c>
       <c r="BE3" t="n">
-        <v>197.2690124511719</v>
+        <v>184.4488830566406</v>
       </c>
       <c r="BF3" t="n">
-        <v>198.2405700683594</v>
+        <v>183.710693359375</v>
       </c>
       <c r="BG3" t="n">
-        <v>199.6650390625</v>
+        <v>182.3325653076172</v>
       </c>
       <c r="BH3" t="n">
-        <v>200.9585113525391</v>
+        <v>180.5763854980469</v>
       </c>
       <c r="BI3" t="n">
-        <v>201.8890533447266</v>
+        <v>178.8127593994141</v>
       </c>
       <c r="BJ3" t="n">
-        <v>202.6125335693359</v>
+        <v>177.1884155273438</v>
       </c>
       <c r="BK3" t="n">
-        <v>203.2884063720703</v>
+        <v>176.1403656005859</v>
       </c>
       <c r="BL3" t="n">
-        <v>203.4343719482422</v>
+        <v>175.4389801025391</v>
       </c>
       <c r="BM3" t="n">
-        <v>203.5815277099609</v>
+        <v>174.9374542236328</v>
       </c>
       <c r="BN3" t="n">
-        <v>203.6978454589844</v>
+        <v>174.3277435302734</v>
       </c>
       <c r="BO3" t="n">
-        <v>203.8218231201172</v>
+        <v>172.6517639160156</v>
       </c>
       <c r="BP3" t="n">
-        <v>203.4269561767578</v>
+        <v>171.666748046875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>202.26220703125</v>
+        <v>170.8347015380859</v>
       </c>
       <c r="BR3" t="n">
-        <v>201.2154693603516</v>
+        <v>170.0823669433594</v>
       </c>
       <c r="BS3" t="n">
-        <v>200.6960296630859</v>
+        <v>169.3480834960938</v>
       </c>
       <c r="BT3" t="n">
-        <v>200.6178741455078</v>
+        <v>168.7796936035156</v>
       </c>
       <c r="BU3" t="n">
-        <v>201.4258880615234</v>
+        <v>168.3932495117188</v>
       </c>
       <c r="BV3" t="n">
-        <v>202.297119140625</v>
+        <v>168.0583038330078</v>
       </c>
       <c r="BW3" t="n">
-        <v>202.6199798583984</v>
+        <v>167.7333679199219</v>
       </c>
       <c r="BX3" t="n">
-        <v>203.0523834228516</v>
+        <v>167.4019927978516</v>
       </c>
       <c r="BY3" t="n">
-        <v>203.3013153076172</v>
+        <v>166.1804351806641</v>
       </c>
       <c r="BZ3" t="n">
-        <v>204.5010070800781</v>
+        <v>165.4983673095703</v>
       </c>
       <c r="CA3" t="n">
-        <v>206.4574737548828</v>
+        <v>164.9864044189453</v>
       </c>
       <c r="CB3" t="n">
-        <v>208.0150299072266</v>
+        <v>164.6715087890625</v>
       </c>
       <c r="CC3" t="n">
-        <v>208.6130218505859</v>
+        <v>164.5277862548828</v>
       </c>
       <c r="CD3" t="n">
-        <v>208.6788482666016</v>
+        <v>164.3230285644531</v>
       </c>
       <c r="CE3" t="n">
-        <v>208.7177124023438</v>
+        <v>163.9871978759766</v>
       </c>
       <c r="CF3" t="n">
-        <v>208.6608276367188</v>
+        <v>163.7336883544922</v>
       </c>
       <c r="CG3" t="n">
-        <v>208.5034790039062</v>
+        <v>163.5668792724609</v>
       </c>
       <c r="CH3" t="n">
-        <v>208.1219787597656</v>
+        <v>163.3377227783203</v>
       </c>
       <c r="CI3" t="n">
-        <v>207.9224548339844</v>
+        <v>163.1467132568359</v>
       </c>
       <c r="CJ3" t="n">
-        <v>207.6155548095703</v>
+        <v>162.9269561767578</v>
       </c>
       <c r="CK3" t="n">
-        <v>207.2380828857422</v>
+        <v>162.7675018310547</v>
       </c>
       <c r="CL3" t="n">
-        <v>207.4487915039062</v>
+        <v>162.5635375976562</v>
       </c>
       <c r="CM3" t="n">
-        <v>207.6116333007812</v>
+        <v>162.3628845214844</v>
       </c>
       <c r="CN3" t="n">
-        <v>207.8454742431641</v>
+        <v>161.8923187255859</v>
       </c>
       <c r="CO3" t="n">
-        <v>208.0928649902344</v>
+        <v>161.6912994384766</v>
       </c>
       <c r="CP3" t="n">
-        <v>208.2384796142578</v>
+        <v>161.4496307373047</v>
       </c>
       <c r="CQ3" t="n">
-        <v>208.3941650390625</v>
+        <v>161.2283477783203</v>
       </c>
       <c r="CR3" t="n">
-        <v>208.5184478759766</v>
+        <v>161.0381774902344</v>
       </c>
       <c r="CS3" t="n">
-        <v>208.6024627685547</v>
+        <v>160.8635101318359</v>
       </c>
       <c r="CT3" t="n">
-        <v>208.293701171875</v>
+        <v>160.8710479736328</v>
       </c>
       <c r="CU3" t="n">
-        <v>207.8779449462891</v>
+        <v>160.8814544677734</v>
       </c>
       <c r="CV3" t="n">
-        <v>209.0076293945312</v>
+        <v>160.8907928466797</v>
       </c>
       <c r="CW3" t="n">
-        <v>209.9462280273438</v>
+        <v>160.9466552734375</v>
       </c>
       <c r="CX3" t="n">
-        <v>209.5708160400391</v>
+        <v>161.0688781738281</v>
       </c>
       <c r="CY3" t="n">
-        <v>207.4120788574219</v>
+        <v>161.1228179931641</v>
       </c>
       <c r="CZ3" t="n">
-        <v>207.6336059570312</v>
+        <v>161.2543182373047</v>
       </c>
       <c r="DA3" t="n">
-        <v>208.2032012939453</v>
+        <v>161.3216857910156</v>
       </c>
       <c r="DB3" t="n">
-        <v>209.0788421630859</v>
+        <v>161.3942718505859</v>
       </c>
       <c r="DC3" t="n">
-        <v>209.5140380859375</v>
+        <v>161.2556457519531</v>
       </c>
       <c r="DD3" t="n">
-        <v>210.2266082763672</v>
+        <v>161.2025756835938</v>
       </c>
       <c r="DE3" t="n">
-        <v>210.4050750732422</v>
+        <v>161.0912170410156</v>
       </c>
       <c r="DF3" t="n">
-        <v>211.3890686035156</v>
+        <v>161.1584930419922</v>
       </c>
       <c r="DG3" t="n">
-        <v>210.771484375</v>
+        <v>161.2200164794922</v>
       </c>
       <c r="DH3" t="n">
-        <v>211.3558502197266</v>
+        <v>161.4563446044922</v>
       </c>
       <c r="DI3" t="n">
-        <v>213.1566772460938</v>
+        <v>161.6026000976562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>213.7425689697266</v>
+        <v>161.9529113769531</v>
       </c>
       <c r="DK3" t="n">
-        <v>212.3207855224609</v>
+        <v>162.2242736816406</v>
       </c>
       <c r="DL3" t="n">
-        <v>211.6963195800781</v>
+        <v>162.3327178955078</v>
       </c>
       <c r="DM3" t="n">
-        <v>210.5954132080078</v>
+        <v>162.4310607910156</v>
       </c>
       <c r="DN3" t="n">
-        <v>209.8956909179688</v>
+        <v>162.52587890625</v>
       </c>
       <c r="DO3" t="n">
-        <v>210.9835662841797</v>
+        <v>162.6248779296875</v>
       </c>
       <c r="DP3" t="n">
-        <v>211.8517303466797</v>
+        <v>162.7350463867188</v>
       </c>
       <c r="DQ3" t="n">
-        <v>212.0864868164062</v>
+        <v>162.9967193603516</v>
       </c>
       <c r="DR3" t="n">
-        <v>211.2360076904297</v>
+        <v>163.1194610595703</v>
       </c>
       <c r="DS3" t="n">
-        <v>208.2655334472656</v>
+        <v>163.2271423339844</v>
       </c>
       <c r="DT3" t="n">
-        <v>207.0154571533203</v>
+        <v>163.5143890380859</v>
       </c>
       <c r="DU3" t="n">
-        <v>204.9351196289062</v>
+        <v>164.2238616943359</v>
       </c>
       <c r="DV3" t="n">
-        <v>205.1009979248047</v>
+        <v>165.2648315429688</v>
       </c>
       <c r="DW3" t="n">
-        <v>205.2309417724609</v>
+        <v>168.4409637451172</v>
       </c>
       <c r="DX3" t="n">
-        <v>204.9015350341797</v>
+        <v>169.6635284423828</v>
       </c>
       <c r="DY3" t="n">
-        <v>203.7725982666016</v>
+        <v>170.6352691650391</v>
       </c>
       <c r="DZ3" t="n">
-        <v>202.9064483642578</v>
+        <v>173.3894958496094</v>
       </c>
       <c r="EA3" t="n">
-        <v>202.7094268798828</v>
+        <v>174.8891143798828</v>
       </c>
       <c r="EB3" t="n">
-        <v>202.6711578369141</v>
+        <v>178.4396820068359</v>
       </c>
       <c r="EC3" t="n">
-        <v>202.6738128662109</v>
+        <v>180.6281433105469</v>
       </c>
       <c r="ED3" t="n">
-        <v>202.7065887451172</v>
+        <v>182.9384002685547</v>
       </c>
       <c r="EE3" t="n">
-        <v>202.7139282226562</v>
+        <v>186.7331085205078</v>
       </c>
       <c r="EF3" t="n">
-        <v>202.7017974853516</v>
+        <v>192.6181640625</v>
       </c>
       <c r="EG3" t="n">
-        <v>203.4860229492188</v>
+        <v>196.3308715820312</v>
       </c>
       <c r="EH3" t="n">
-        <v>204.6214599609375</v>
+        <v>197.2690734863281</v>
       </c>
       <c r="EI3" t="n">
-        <v>205.1490325927734</v>
+        <v>198.6355133056641</v>
       </c>
       <c r="EJ3" t="n">
-        <v>206.1413421630859</v>
+        <v>199.0323181152344</v>
       </c>
       <c r="EK3" t="n">
-        <v>206.2247924804688</v>
+        <v>198.5901336669922</v>
       </c>
       <c r="EL3" t="n">
-        <v>206.3581237792969</v>
+        <v>197.8078002929688</v>
       </c>
       <c r="EM3" t="n">
-        <v>209.1200408935547</v>
+        <v>196.9676971435547</v>
       </c>
       <c r="EN3" t="n">
-        <v>210.9230346679688</v>
+        <v>196.9474029541016</v>
       </c>
       <c r="EO3" t="n">
-        <v>210.8155822753906</v>
+        <v>197.3177337646484</v>
       </c>
       <c r="EP3" t="n">
-        <v>209.8491973876953</v>
+        <v>198.5267181396484</v>
       </c>
       <c r="EQ3" t="n">
-        <v>208.0769805908203</v>
+        <v>204.4501190185547</v>
       </c>
       <c r="ER3" t="n">
-        <v>207.6681060791016</v>
+        <v>206.1202697753906</v>
       </c>
       <c r="ES3" t="n">
-        <v>207.6122283935547</v>
+        <v>209.8913726806641</v>
       </c>
       <c r="ET3" t="n">
-        <v>207.3521881103516</v>
+        <v>213.7942504882812</v>
       </c>
       <c r="EU3" t="n">
-        <v>207.0786590576172</v>
+        <v>215.5774688720703</v>
       </c>
       <c r="EV3" t="n">
-        <v>206.5733184814453</v>
+        <v>216.6211700439453</v>
       </c>
       <c r="EW3" t="n">
-        <v>206.2130584716797</v>
+        <v>217.9809875488281</v>
       </c>
       <c r="EX3" t="n">
-        <v>206.1282196044922</v>
+        <v>220.1735534667969</v>
       </c>
       <c r="EY3" t="n">
-        <v>206.189208984375</v>
+        <v>221.1657104492188</v>
       </c>
       <c r="EZ3" t="n">
-        <v>206.7942962646484</v>
+        <v>221.8280181884766</v>
       </c>
       <c r="FA3" t="n">
-        <v>210.8433837890625</v>
+        <v>223.4587707519531</v>
       </c>
       <c r="FB3" t="n">
-        <v>211.3253479003906</v>
+        <v>224.9012298583984</v>
       </c>
       <c r="FC3" t="n">
-        <v>209.7795715332031</v>
+        <v>228.0793609619141</v>
       </c>
       <c r="FD3" t="n">
-        <v>208.2456207275391</v>
+        <v>230.576904296875</v>
       </c>
       <c r="FE3" t="n">
-        <v>207.473876953125</v>
+        <v>231.6586151123047</v>
       </c>
       <c r="FF3" t="n">
-        <v>206.7737274169922</v>
+        <v>232.8987731933594</v>
       </c>
       <c r="FG3" t="n">
-        <v>205.8306121826172</v>
+        <v>235.7412719726562</v>
       </c>
       <c r="FH3" t="n">
-        <v>206.07177734375</v>
+        <v>236.7625732421875</v>
       </c>
       <c r="FI3" t="n">
-        <v>206.2322387695312</v>
+        <v>239.5834655761719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>206.7142486572266</v>
+        <v>242.2406158447266</v>
       </c>
       <c r="FK3" t="n">
-        <v>207.290283203125</v>
+        <v>246.1936798095703</v>
       </c>
       <c r="FL3" t="n">
-        <v>208.8146209716797</v>
+        <v>247.101806640625</v>
       </c>
       <c r="FM3" t="n">
-        <v>209.0935668945312</v>
+        <v>247.527587890625</v>
       </c>
       <c r="FN3" t="n">
-        <v>209.2111206054688</v>
+        <v>247.3474731445312</v>
       </c>
       <c r="FO3" t="n">
-        <v>211.6064300537109</v>
+        <v>247.1623992919922</v>
       </c>
       <c r="FP3" t="n">
-        <v>214.1446685791016</v>
+        <v>246.9822387695312</v>
       </c>
       <c r="FQ3" t="n">
-        <v>216.6983032226562</v>
+        <v>246.8955535888672</v>
       </c>
       <c r="FR3" t="n">
-        <v>221.4303894042969</v>
+        <v>246.8562622070312</v>
       </c>
       <c r="FS3" t="n">
-        <v>220.4177856445312</v>
+        <v>246.8147888183594</v>
       </c>
       <c r="FT3" t="n">
-        <v>214.3368377685547</v>
+        <v>246.7976226806641</v>
       </c>
       <c r="FU3" t="n">
-        <v>207.6895446777344</v>
+        <v>246.8377380371094</v>
       </c>
       <c r="FV3" t="n">
-        <v>206.6074371337891</v>
+        <v>250.0017700195312</v>
       </c>
       <c r="FW3" t="n">
-        <v>206.5679626464844</v>
+        <v>252.9747161865234</v>
       </c>
       <c r="FX3" t="n">
-        <v>206.6099243164062</v>
+        <v>253.7777099609375</v>
       </c>
       <c r="FY3" t="n">
-        <v>207.0123748779297</v>
+        <v>254.3303833007812</v>
       </c>
       <c r="FZ3" t="n">
-        <v>208.0527191162109</v>
+        <v>254.5920715332031</v>
       </c>
       <c r="GA3" t="n">
-        <v>206.6007690429688</v>
+        <v>254.6639404296875</v>
       </c>
       <c r="GB3" t="n">
-        <v>205.6596374511719</v>
+        <v>254.1304168701172</v>
       </c>
       <c r="GC3" t="n">
-        <v>204.3737640380859</v>
+        <v>253.429931640625</v>
       </c>
       <c r="GD3" t="n">
-        <v>204.1528015136719</v>
+        <v>252.2427673339844</v>
       </c>
       <c r="GE3" t="n">
-        <v>205.1822052001953</v>
+        <v>252.1023864746094</v>
       </c>
       <c r="GF3" t="n">
-        <v>205.8336181640625</v>
+        <v>251.8326110839844</v>
       </c>
       <c r="GG3" t="n">
-        <v>206.1782073974609</v>
+        <v>251.716796875</v>
       </c>
       <c r="GH3" t="n">
-        <v>206.0396118164062</v>
+        <v>251.5912933349609</v>
       </c>
       <c r="GI3" t="n">
-        <v>202.6208801269531</v>
+        <v>251.4197387695312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>199.1958618164062</v>
+        <v>250.7551879882812</v>
       </c>
       <c r="GK3" t="n">
-        <v>197.7782287597656</v>
+        <v>250.3043823242188</v>
       </c>
       <c r="GL3" t="n">
-        <v>197.2159118652344</v>
+        <v>249.1148223876953</v>
       </c>
       <c r="GM3" t="n">
-        <v>196.9527893066406</v>
+        <v>248.4961547851562</v>
       </c>
       <c r="GN3" t="n">
-        <v>196.1157989501953</v>
+        <v>248.4018859863281</v>
       </c>
       <c r="GO3" t="n">
-        <v>194.2646331787109</v>
+        <v>248.3678894042969</v>
       </c>
       <c r="GP3" t="n">
-        <v>192.8384857177734</v>
+        <v>248.3827667236328</v>
       </c>
       <c r="GQ3" t="n">
-        <v>192.2746887207031</v>
+        <v>248.8819274902344</v>
       </c>
       <c r="GR3" t="n">
-        <v>191.8945007324219</v>
+        <v>249.2444152832031</v>
       </c>
       <c r="GS3" t="n">
-        <v>190.7232513427734</v>
+        <v>248.8164672851562</v>
       </c>
       <c r="GT3" t="n">
-        <v>189.9554138183594</v>
+        <v>248.2105712890625</v>
       </c>
       <c r="GU3" t="n">
-        <v>188.9516448974609</v>
+        <v>247.0058135986328</v>
       </c>
       <c r="GV3" t="n">
-        <v>188.0667877197266</v>
+        <v>246.165283203125</v>
       </c>
       <c r="GW3" t="n">
-        <v>186.5269775390625</v>
+        <v>246.0245361328125</v>
       </c>
       <c r="GX3" t="n">
-        <v>185.132568359375</v>
+        <v>245.9062347412109</v>
       </c>
       <c r="GY3" t="n">
-        <v>183.7140502929688</v>
+        <v>245.7825622558594</v>
       </c>
       <c r="GZ3" t="n">
-        <v>181.96923828125</v>
+        <v>245.6320037841797</v>
       </c>
       <c r="HA3" t="n">
-        <v>179.8493041992188</v>
+        <v>245.4650726318359</v>
       </c>
       <c r="HB3" t="n">
-        <v>178.9404602050781</v>
+        <v>245.1188049316406</v>
       </c>
       <c r="HC3" t="n">
-        <v>178.0366363525391</v>
+        <v>244.6776580810547</v>
       </c>
       <c r="HD3" t="n">
-        <v>176.2664031982422</v>
+        <v>244.4456634521484</v>
       </c>
       <c r="HE3" t="n">
-        <v>175.2142028808594</v>
+        <v>243.9386901855469</v>
       </c>
       <c r="HF3" t="n">
-        <v>170.2654571533203</v>
+        <v>243.8043518066406</v>
       </c>
       <c r="HG3" t="n">
-        <v>166.9645690917969</v>
+        <v>243.7794189453125</v>
       </c>
       <c r="HH3" t="n">
-        <v>159.8009948730469</v>
+        <v>243.7799224853516</v>
       </c>
       <c r="HI3" t="n">
-        <v>155.6628112792969</v>
+        <v>243.7802124023438</v>
       </c>
       <c r="HJ3" t="n">
-        <v>152.8462677001953</v>
+        <v>243.7857971191406</v>
       </c>
       <c r="HK3" t="n">
-        <v>151.9108123779297</v>
+        <v>244.1889038085938</v>
       </c>
       <c r="HL3" t="n">
-        <v>149.2058715820312</v>
+        <v>245.4489593505859</v>
       </c>
       <c r="HM3" t="n">
-        <v>144.9195709228516</v>
+        <v>246.9633636474609</v>
       </c>
       <c r="HN3" t="n">
-        <v>137.9097595214844</v>
+        <v>248.3657684326172</v>
       </c>
       <c r="HO3" t="n">
-        <v>133.2243499755859</v>
+        <v>247.8537139892578</v>
       </c>
       <c r="HP3" t="n">
-        <v>128.5427093505859</v>
+        <v>246.3025207519531</v>
       </c>
       <c r="HQ3" t="n">
-        <v>123.4978713989258</v>
+        <v>245.8243255615234</v>
       </c>
       <c r="HR3" t="n">
-        <v>118.9607162475586</v>
+        <v>244.4024353027344</v>
       </c>
       <c r="HS3" t="n">
-        <v>117.9358825683594</v>
+        <v>244.0235748291016</v>
       </c>
       <c r="HT3" t="n">
-        <v>116.8784408569336</v>
+        <v>243.8226165771484</v>
       </c>
       <c r="HU3" t="n">
-        <v>112.1663665771484</v>
+        <v>243.7707977294922</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>243.7565765380859</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>243.7668762207031</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>243.7752380371094</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>243.7785797119141</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>243.7873992919922</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>243.9008941650391</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>243.9633483886719</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>244.2458801269531</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>244.9302825927734</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>246.5619812011719</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>247.7059020996094</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>247.8590087890625</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>247.8586883544922</v>
+      </c>
+      <c r="II3" t="n">
+        <v>247.8565673828125</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>248.1103668212891</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>248.2638397216797</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>248.5009307861328</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>248.9023590087891</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>249.2119140625</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>249.3326263427734</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>249.355224609375</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>248.6537628173828</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>247.7004699707031</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>247.2482299804688</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>246.9874420166016</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>246.9692840576172</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>246.9634399414062</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>246.9597473144531</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>246.9532012939453</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>246.9525756835938</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>246.9524536132812</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>246.9523773193359</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>246.9625854492188</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>247.0335998535156</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>247.0752563476562</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>247.1231384277344</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>247.1601715087891</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>247.1935577392578</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>247.011962890625</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>246.7814025878906</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>246.0676574707031</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>244.9926605224609</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>244.1725769042969</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>244.0928344726562</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>244.0094299316406</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>243.9520111083984</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>243.9512939453125</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>243.9458312988281</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>243.9472351074219</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>243.9612884521484</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>243.972412109375</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>243.9792022705078</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>243.9801330566406</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>243.9812316894531</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>243.9825134277344</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>243.9847106933594</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>243.9861450195312</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>243.9876403808594</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>243.9892425537109</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>243.9913787841797</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>243.9923553466797</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>243.9920959472656</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>243.9915618896484</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>243.9902648925781</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>243.9801635742188</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>243.9675750732422</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>243.9539642333984</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>243.9540710449219</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>243.9512176513672</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>243.9444580078125</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>243.9298400878906</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>243.9103393554688</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>243.8837890625</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>243.8382873535156</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>243.8155517578125</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>243.7931976318359</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>243.7790069580078</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>243.7625885009766</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>243.754638671875</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>243.7531433105469</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>243.7528686523438</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>243.7528839111328</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>243.7533264160156</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>243.7541809082031</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>243.7707977294922</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>243.7967224121094</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>243.8321685791016</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>243.7388916015625</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>240.9487457275391</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>239.3567352294922</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>237.9463653564453</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>234.0785064697266</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>226.6302795410156</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>217.9669036865234</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>213.8246917724609</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>211.4008026123047</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>204.1715850830078</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>199.8369750976562</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>193.3069610595703</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>187.9474945068359</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>183.9659423828125</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>177.7306060791016</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>159.4803466796875</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>144.5880889892578</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>124.4731826782227</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>106.6398849487305</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>100.3414459228516</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>94.55751800537109</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>90.11492156982422</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>91.01846313476562</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>96.92921447753906</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>100.5110168457031</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>99.52400207519531</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>93.81472778320312</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>96.35934448242188</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>111.9666748046875</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>129.6763916015625</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>151.3623809814453</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>207.7724609375</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>255.1980438232422</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>272.3445129394531</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>298.2596740722656</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>300.3766174316406</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>297.8501892089844</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>295.3856506347656</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>294.7401123046875</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>296.7156677246094</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>298.3639526367188</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>300.7092590332031</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>302.1753540039062</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>295.9807434082031</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>284.7876281738281</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>275.0810852050781</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>268.8943481445312</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>257.2598571777344</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>246.9417877197266</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>241.8472747802734</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>237.9381561279297</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>237.73876953125</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>241.7140350341797</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>249.5424194335938</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>258.1076354980469</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>261.4095153808594</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>264.1317138671875</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>266.1512756347656</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>266.5861511230469</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>266.6166381835938</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>266.7156066894531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>922.8545532226562</v>
+        <v>1021.910827636719</v>
       </c>
       <c r="B4" t="n">
-        <v>935.3444213867188</v>
+        <v>1028.33935546875</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7584228515625</v>
+        <v>1032.1494140625</v>
       </c>
       <c r="D4" t="n">
-        <v>969.6673583984375</v>
+        <v>1036.458129882812</v>
       </c>
       <c r="E4" t="n">
-        <v>994.778564453125</v>
+        <v>1042.226806640625</v>
       </c>
       <c r="F4" t="n">
-        <v>1015.691589355469</v>
+        <v>1051.448486328125</v>
       </c>
       <c r="G4" t="n">
-        <v>1041.448974609375</v>
+        <v>1063.38427734375</v>
       </c>
       <c r="H4" t="n">
-        <v>1070.508056640625</v>
+        <v>1074.514282226562</v>
       </c>
       <c r="I4" t="n">
-        <v>1102.85693359375</v>
+        <v>1084.00341796875</v>
       </c>
       <c r="J4" t="n">
-        <v>1137.1162109375</v>
+        <v>1092.271850585938</v>
       </c>
       <c r="K4" t="n">
-        <v>1170.75048828125</v>
+        <v>1100.40380859375</v>
       </c>
       <c r="L4" t="n">
-        <v>1198.049194335938</v>
+        <v>1108.786376953125</v>
       </c>
       <c r="M4" t="n">
-        <v>1222.038696289062</v>
+        <v>1173.058959960938</v>
       </c>
       <c r="N4" t="n">
-        <v>1245.368896484375</v>
+        <v>1183.432006835938</v>
       </c>
       <c r="O4" t="n">
-        <v>1273.454345703125</v>
+        <v>1219.988647460938</v>
       </c>
       <c r="P4" t="n">
-        <v>1306.130859375</v>
+        <v>1231.766723632812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1361.478515625</v>
+        <v>1240.798095703125</v>
       </c>
       <c r="R4" t="n">
-        <v>1406.686767578125</v>
+        <v>1249.224365234375</v>
       </c>
       <c r="S4" t="n">
-        <v>1442.39599609375</v>
+        <v>1257.776611328125</v>
       </c>
       <c r="T4" t="n">
-        <v>1472.781982421875</v>
+        <v>1275.363403320312</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.573852539062</v>
+        <v>1291.95361328125</v>
       </c>
       <c r="V4" t="n">
-        <v>1559.393310546875</v>
+        <v>1312.78125</v>
       </c>
       <c r="W4" t="n">
-        <v>1604.48779296875</v>
+        <v>1334.397705078125</v>
       </c>
       <c r="X4" t="n">
-        <v>1647.671875</v>
+        <v>1353.47509765625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1689.436767578125</v>
+        <v>1367.252197265625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1731.604248046875</v>
+        <v>1377.82666015625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1774.423583984375</v>
+        <v>1392.393310546875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1819.588989257812</v>
+        <v>1405.339111328125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1860.529052734375</v>
+        <v>1416.279296875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1893.229736328125</v>
+        <v>1426.584716796875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1928.502807617188</v>
+        <v>1439.183715820312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1971.673095703125</v>
+        <v>1449.194458007812</v>
       </c>
       <c r="AG4" t="n">
-        <v>2010.426025390625</v>
+        <v>1456.677978515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2039.359130859375</v>
+        <v>1463.636474609375</v>
       </c>
       <c r="AI4" t="n">
-        <v>2061.384765625</v>
+        <v>1469.17626953125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2090.19482421875</v>
+        <v>1475.008422851562</v>
       </c>
       <c r="AK4" t="n">
-        <v>2132.11181640625</v>
+        <v>1478.256469726562</v>
       </c>
       <c r="AL4" t="n">
-        <v>2181.52685546875</v>
+        <v>1479.332763671875</v>
       </c>
       <c r="AM4" t="n">
-        <v>2223.51025390625</v>
+        <v>1479.696044921875</v>
       </c>
       <c r="AN4" t="n">
-        <v>2255.9140625</v>
+        <v>1479.816040039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>2311.4453125</v>
+        <v>1479.865600585938</v>
       </c>
       <c r="AP4" t="n">
-        <v>2351.454345703125</v>
+        <v>1479.883422851562</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2399.997802734375</v>
+        <v>1479.889404296875</v>
       </c>
       <c r="AR4" t="n">
-        <v>2445.52001953125</v>
+        <v>1479.869140625</v>
       </c>
       <c r="AS4" t="n">
-        <v>2477.10546875</v>
+        <v>1478.275512695312</v>
       </c>
       <c r="AT4" t="n">
-        <v>2503.53076171875</v>
+        <v>1473.949096679688</v>
       </c>
       <c r="AU4" t="n">
-        <v>2531.64306640625</v>
+        <v>1466.3447265625</v>
       </c>
       <c r="AV4" t="n">
-        <v>2565.42822265625</v>
+        <v>1457.72705078125</v>
       </c>
       <c r="AW4" t="n">
-        <v>2617.06689453125</v>
+        <v>1448.567260742188</v>
       </c>
       <c r="AX4" t="n">
-        <v>2674.537841796875</v>
+        <v>1440.1220703125</v>
       </c>
       <c r="AY4" t="n">
-        <v>2712.76806640625</v>
+        <v>1431.458740234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2735.58349609375</v>
+        <v>1422.567260742188</v>
       </c>
       <c r="BA4" t="n">
-        <v>2749.1875</v>
+        <v>1412.63623046875</v>
       </c>
       <c r="BB4" t="n">
-        <v>2761.923583984375</v>
+        <v>1403.49365234375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2778.875244140625</v>
+        <v>1394.7236328125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2815.346923828125</v>
+        <v>1387.7626953125</v>
       </c>
       <c r="BE4" t="n">
-        <v>2846.88232421875</v>
+        <v>1380.792114257812</v>
       </c>
       <c r="BF4" t="n">
-        <v>2883.546875</v>
+        <v>1373.254272460938</v>
       </c>
       <c r="BG4" t="n">
-        <v>2940.9638671875</v>
+        <v>1364.330078125</v>
       </c>
       <c r="BH4" t="n">
-        <v>2999.598388671875</v>
+        <v>1356.16943359375</v>
       </c>
       <c r="BI4" t="n">
-        <v>3051.02001953125</v>
+        <v>1349.529907226562</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3082.51171875</v>
+        <v>1343.574829101562</v>
       </c>
       <c r="BK4" t="n">
-        <v>3102.542236328125</v>
+        <v>1337.34375</v>
       </c>
       <c r="BL4" t="n">
-        <v>3115.529052734375</v>
+        <v>1330.638427734375</v>
       </c>
       <c r="BM4" t="n">
-        <v>3126.31591796875</v>
+        <v>1324.006225585938</v>
       </c>
       <c r="BN4" t="n">
-        <v>3136.98095703125</v>
+        <v>1316.409912109375</v>
       </c>
       <c r="BO4" t="n">
-        <v>3151.012939453125</v>
+        <v>1305.343627929688</v>
       </c>
       <c r="BP4" t="n">
-        <v>3165.513671875</v>
+        <v>1301.466552734375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3192.757080078125</v>
+        <v>1297.17578125</v>
       </c>
       <c r="BR4" t="n">
-        <v>3216.868408203125</v>
+        <v>1292.7490234375</v>
       </c>
       <c r="BS4" t="n">
-        <v>3234.74462890625</v>
+        <v>1289.02587890625</v>
       </c>
       <c r="BT4" t="n">
-        <v>3252.49365234375</v>
+        <v>1285.086181640625</v>
       </c>
       <c r="BU4" t="n">
-        <v>3267.060546875</v>
+        <v>1281.490966796875</v>
       </c>
       <c r="BV4" t="n">
-        <v>3280.38720703125</v>
+        <v>1278.458618164062</v>
       </c>
       <c r="BW4" t="n">
-        <v>3308.890869140625</v>
+        <v>1275.6591796875</v>
       </c>
       <c r="BX4" t="n">
-        <v>3347.5419921875</v>
+        <v>1272.865600585938</v>
       </c>
       <c r="BY4" t="n">
-        <v>3369.55517578125</v>
+        <v>1268.009033203125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3379.99462890625</v>
+        <v>1263.816284179688</v>
       </c>
       <c r="CA4" t="n">
-        <v>3386.05322265625</v>
+        <v>1258.792114257812</v>
       </c>
       <c r="CB4" t="n">
-        <v>3406.23193359375</v>
+        <v>1254.050048828125</v>
       </c>
       <c r="CC4" t="n">
-        <v>3434.51708984375</v>
+        <v>1250.116455078125</v>
       </c>
       <c r="CD4" t="n">
-        <v>3462.380126953125</v>
+        <v>1245.75244140625</v>
       </c>
       <c r="CE4" t="n">
-        <v>3484.062744140625</v>
+        <v>1239.93798828125</v>
       </c>
       <c r="CF4" t="n">
-        <v>3503.736328125</v>
+        <v>1237.65087890625</v>
       </c>
       <c r="CG4" t="n">
-        <v>3522.1708984375</v>
+        <v>1234.505859375</v>
       </c>
       <c r="CH4" t="n">
-        <v>3541.525146484375</v>
+        <v>1230.6220703125</v>
       </c>
       <c r="CI4" t="n">
-        <v>3560.08984375</v>
+        <v>1227.786987304688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3574.555908203125</v>
+        <v>1224.645874023438</v>
       </c>
       <c r="CK4" t="n">
-        <v>3582.313720703125</v>
+        <v>1222.7529296875</v>
       </c>
       <c r="CL4" t="n">
-        <v>3589.212890625</v>
+        <v>1221.546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>3594.7783203125</v>
+        <v>1220.11962890625</v>
       </c>
       <c r="CN4" t="n">
-        <v>3604.38623046875</v>
+        <v>1218.55224609375</v>
       </c>
       <c r="CO4" t="n">
-        <v>3614.48974609375</v>
+        <v>1218.033447265625</v>
       </c>
       <c r="CP4" t="n">
-        <v>3623.26806640625</v>
+        <v>1217.685424804688</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3633.5068359375</v>
+        <v>1217.3271484375</v>
       </c>
       <c r="CR4" t="n">
-        <v>3644.5</v>
+        <v>1217.215576171875</v>
       </c>
       <c r="CS4" t="n">
-        <v>3652.696044921875</v>
+        <v>1217.160766601562</v>
       </c>
       <c r="CT4" t="n">
-        <v>3660.1298828125</v>
+        <v>1217.156616210938</v>
       </c>
       <c r="CU4" t="n">
-        <v>3658.7666015625</v>
+        <v>1217.15625</v>
       </c>
       <c r="CV4" t="n">
-        <v>3657.93310546875</v>
+        <v>1217.15625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3657.35107421875</v>
+        <v>1217.943603515625</v>
       </c>
       <c r="CX4" t="n">
-        <v>3664.066162109375</v>
+        <v>1219.778076171875</v>
       </c>
       <c r="CY4" t="n">
-        <v>3680.51708984375</v>
+        <v>1220.605224609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3691.48583984375</v>
+        <v>1222.638793945312</v>
       </c>
       <c r="DA4" t="n">
-        <v>3695.3779296875</v>
+        <v>1223.684814453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>3693.583740234375</v>
+        <v>1224.8154296875</v>
       </c>
       <c r="DC4" t="n">
-        <v>3694.0693359375</v>
+        <v>1226.193237304688</v>
       </c>
       <c r="DD4" t="n">
-        <v>3694.560546875</v>
+        <v>1227.95068359375</v>
       </c>
       <c r="DE4" t="n">
-        <v>3695.224365234375</v>
+        <v>1231.392944335938</v>
       </c>
       <c r="DF4" t="n">
-        <v>3691.974609375</v>
+        <v>1233.713623046875</v>
       </c>
       <c r="DG4" t="n">
-        <v>3691.68408203125</v>
+        <v>1234.874389648438</v>
       </c>
       <c r="DH4" t="n">
-        <v>3690.826416015625</v>
+        <v>1237.400146484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>3687.296875</v>
+        <v>1238.8125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3679.81689453125</v>
+        <v>1243.095703125</v>
       </c>
       <c r="DK4" t="n">
-        <v>3674.168701171875</v>
+        <v>1247.703857421875</v>
       </c>
       <c r="DL4" t="n">
-        <v>3673.22314453125</v>
+        <v>1249.424560546875</v>
       </c>
       <c r="DM4" t="n">
-        <v>3672.29443359375</v>
+        <v>1250.965576171875</v>
       </c>
       <c r="DN4" t="n">
-        <v>3668.904052734375</v>
+        <v>1252.453247070312</v>
       </c>
       <c r="DO4" t="n">
-        <v>3653.70947265625</v>
+        <v>1254.0087890625</v>
       </c>
       <c r="DP4" t="n">
-        <v>3647.30322265625</v>
+        <v>1255.751708984375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3639.33544921875</v>
+        <v>1259.922241210938</v>
       </c>
       <c r="DR4" t="n">
-        <v>3628.263427734375</v>
+        <v>1261.866333007812</v>
       </c>
       <c r="DS4" t="n">
-        <v>3620.0615234375</v>
+        <v>1263.556762695312</v>
       </c>
       <c r="DT4" t="n">
-        <v>3618.5869140625</v>
+        <v>1267.784545898438</v>
       </c>
       <c r="DU4" t="n">
-        <v>3612.95361328125</v>
+        <v>1274.498046875</v>
       </c>
       <c r="DV4" t="n">
-        <v>3603.443603515625</v>
+        <v>1278.027099609375</v>
       </c>
       <c r="DW4" t="n">
-        <v>3593.84033203125</v>
+        <v>1285.723999023438</v>
       </c>
       <c r="DX4" t="n">
-        <v>3585.5205078125</v>
+        <v>1291.330810546875</v>
       </c>
       <c r="DY4" t="n">
-        <v>3570.291015625</v>
+        <v>1296.86669921875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3559.239013671875</v>
+        <v>1313.15625</v>
       </c>
       <c r="EA4" t="n">
-        <v>3555.185546875</v>
+        <v>1321.498779296875</v>
       </c>
       <c r="EB4" t="n">
-        <v>3555.577392578125</v>
+        <v>1336.419677734375</v>
       </c>
       <c r="EC4" t="n">
-        <v>3555.967041015625</v>
+        <v>1344.405029296875</v>
       </c>
       <c r="ED4" t="n">
-        <v>3556.03076171875</v>
+        <v>1352.198120117188</v>
       </c>
       <c r="EE4" t="n">
-        <v>3556.0390625</v>
+        <v>1368.99755859375</v>
       </c>
       <c r="EF4" t="n">
-        <v>3553.1357421875</v>
+        <v>1388.971923828125</v>
       </c>
       <c r="EG4" t="n">
-        <v>3538.14697265625</v>
+        <v>1409.13720703125</v>
       </c>
       <c r="EH4" t="n">
-        <v>3521.2158203125</v>
+        <v>1418.018310546875</v>
       </c>
       <c r="EI4" t="n">
-        <v>3512.59375</v>
+        <v>1433.72998046875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3498.818115234375</v>
+        <v>1448.267822265625</v>
       </c>
       <c r="EK4" t="n">
-        <v>3488.457275390625</v>
+        <v>1472.873657226562</v>
       </c>
       <c r="EL4" t="n">
-        <v>3477.0576171875</v>
+        <v>1483.267822265625</v>
       </c>
       <c r="EM4" t="n">
-        <v>3465.287109375</v>
+        <v>1501.945556640625</v>
       </c>
       <c r="EN4" t="n">
-        <v>3450.9130859375</v>
+        <v>1511.63671875</v>
       </c>
       <c r="EO4" t="n">
-        <v>3427.420654296875</v>
+        <v>1529.822875976562</v>
       </c>
       <c r="EP4" t="n">
-        <v>3424.576171875</v>
+        <v>1542.8818359375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3436.447998046875</v>
+        <v>1585.14306640625</v>
       </c>
       <c r="ER4" t="n">
-        <v>3444.903564453125</v>
+        <v>1595.5341796875</v>
       </c>
       <c r="ES4" t="n">
-        <v>3442.151611328125</v>
+        <v>1622.463134765625</v>
       </c>
       <c r="ET4" t="n">
-        <v>3441.43701171875</v>
+        <v>1656.5185546875</v>
       </c>
       <c r="EU4" t="n">
-        <v>3439.7314453125</v>
+        <v>1676.578857421875</v>
       </c>
       <c r="EV4" t="n">
-        <v>3440.831298828125</v>
+        <v>1694.211547851562</v>
       </c>
       <c r="EW4" t="n">
-        <v>3447.5439453125</v>
+        <v>1734.4150390625</v>
       </c>
       <c r="EX4" t="n">
-        <v>3446.537353515625</v>
+        <v>1777.15673828125</v>
       </c>
       <c r="EY4" t="n">
-        <v>3452.5400390625</v>
+        <v>1795.254516601562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3459.80712890625</v>
+        <v>1817.233642578125</v>
       </c>
       <c r="FA4" t="n">
-        <v>3461.3642578125</v>
+        <v>1852.270629882812</v>
       </c>
       <c r="FB4" t="n">
-        <v>3467.29345703125</v>
+        <v>1866.282958984375</v>
       </c>
       <c r="FC4" t="n">
-        <v>3488.251953125</v>
+        <v>1908.13818359375</v>
       </c>
       <c r="FD4" t="n">
-        <v>3512.134765625</v>
+        <v>1972.210693359375</v>
       </c>
       <c r="FE4" t="n">
-        <v>3517.3974609375</v>
+        <v>1993.277221679688</v>
       </c>
       <c r="FF4" t="n">
-        <v>3519.52294921875</v>
+        <v>2006.723022460938</v>
       </c>
       <c r="FG4" t="n">
-        <v>3524.33740234375</v>
+        <v>2035.001953125</v>
       </c>
       <c r="FH4" t="n">
-        <v>3530.76220703125</v>
+        <v>2059.498046875</v>
       </c>
       <c r="FI4" t="n">
-        <v>3532.518798828125</v>
+        <v>2105.792236328125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3531.46435546875</v>
+        <v>2128.645751953125</v>
       </c>
       <c r="FK4" t="n">
-        <v>3527.41357421875</v>
+        <v>2180.78759765625</v>
       </c>
       <c r="FL4" t="n">
-        <v>3521.657470703125</v>
+        <v>2200.19482421875</v>
       </c>
       <c r="FM4" t="n">
-        <v>3524.376220703125</v>
+        <v>2222.984375</v>
       </c>
       <c r="FN4" t="n">
-        <v>3525.4814453125</v>
+        <v>2233.349609375</v>
       </c>
       <c r="FO4" t="n">
-        <v>3514.461669921875</v>
+        <v>2242.745361328125</v>
       </c>
       <c r="FP4" t="n">
-        <v>3482.296875</v>
+        <v>2263.69384765625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3460.138916015625</v>
+        <v>2285.619873046875</v>
       </c>
       <c r="FR4" t="n">
-        <v>3428.408935546875</v>
+        <v>2309.17529296875</v>
       </c>
       <c r="FS4" t="n">
-        <v>3432.232421875</v>
+        <v>2336.6474609375</v>
       </c>
       <c r="FT4" t="n">
-        <v>3459.2314453125</v>
+        <v>2361.07763671875</v>
       </c>
       <c r="FU4" t="n">
-        <v>3479.31494140625</v>
+        <v>2370.031005859375</v>
       </c>
       <c r="FV4" t="n">
-        <v>3464.9111328125</v>
+        <v>2385.318359375</v>
       </c>
       <c r="FW4" t="n">
-        <v>3434.893310546875</v>
+        <v>2390.26123046875</v>
       </c>
       <c r="FX4" t="n">
-        <v>3426.6826171875</v>
+        <v>2390.900634765625</v>
       </c>
       <c r="FY4" t="n">
-        <v>3418.2333984375</v>
+        <v>2391.488037109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3394.890625</v>
+        <v>2392.79736328125</v>
       </c>
       <c r="GA4" t="n">
-        <v>3349.475830078125</v>
+        <v>2393.878662109375</v>
       </c>
       <c r="GB4" t="n">
-        <v>3335.98193359375</v>
+        <v>2396.7431640625</v>
       </c>
       <c r="GC4" t="n">
-        <v>3306.406982421875</v>
+        <v>2399.989013671875</v>
       </c>
       <c r="GD4" t="n">
-        <v>3291.66650390625</v>
+        <v>2408.4638671875</v>
       </c>
       <c r="GE4" t="n">
-        <v>3233.4775390625</v>
+        <v>2411.6826171875</v>
       </c>
       <c r="GF4" t="n">
-        <v>3210.531005859375</v>
+        <v>2417.64208984375</v>
       </c>
       <c r="GG4" t="n">
-        <v>3175.70263671875</v>
+        <v>2417.203125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3157.729736328125</v>
+        <v>2412.84619140625</v>
       </c>
       <c r="GI4" t="n">
-        <v>3098.501953125</v>
+        <v>2405.2216796875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3026.95751953125</v>
+        <v>2398.5029296875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2935.16796875</v>
+        <v>2394.98486328125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2865.66552734375</v>
+        <v>2397.051025390625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2836.22900390625</v>
+        <v>2397.71875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2813.458984375</v>
+        <v>2398.05712890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2761.571533203125</v>
+        <v>2398.29150390625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2711.298095703125</v>
+        <v>2398.33447265625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2685.2529296875</v>
+        <v>2393.266845703125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2650.153076171875</v>
+        <v>2385.64111328125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2558.492431640625</v>
+        <v>2381.7021484375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2509.73388671875</v>
+        <v>2379.541015625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2449.087890625</v>
+        <v>2376.324462890625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2400.671875</v>
+        <v>2373.2373046875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2317.57080078125</v>
+        <v>2370.5205078125</v>
       </c>
       <c r="GX4" t="n">
-        <v>2248.69091796875</v>
+        <v>2362.73046875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2193.478515625</v>
+        <v>2357.81103515625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2130.345458984375</v>
+        <v>2357.074951171875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2047.41845703125</v>
+        <v>2356.9814453125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2001.564575195312</v>
+        <v>2356.03466796875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1921.015869140625</v>
+        <v>2354.28857421875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1833.30859375</v>
+        <v>2353.037109375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1804.677001953125</v>
+        <v>2352.197265625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1710.697021484375</v>
+        <v>2350.404296875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1649.48876953125</v>
+        <v>2345.47900390625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1554.14306640625</v>
+        <v>2344.28515625</v>
       </c>
       <c r="HI4" t="n">
-        <v>1489.0224609375</v>
+        <v>2343.96533203125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1426.63671875</v>
+        <v>2343.596923828125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1362.168212890625</v>
+        <v>2342.001953125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1295.441284179688</v>
+        <v>2319.833251953125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1230.819458007812</v>
+        <v>2300.9873046875</v>
       </c>
       <c r="HN4" t="n">
-        <v>1149.791381835938</v>
+        <v>2292.38671875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1105.759643554688</v>
+        <v>2282.8701171875</v>
       </c>
       <c r="HP4" t="n">
-        <v>1067.125732421875</v>
+        <v>2271.917724609375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1022.024658203125</v>
+        <v>2264.74755859375</v>
       </c>
       <c r="HR4" t="n">
-        <v>968.1739501953125</v>
+        <v>2251.69384765625</v>
       </c>
       <c r="HS4" t="n">
-        <v>919.4752197265625</v>
+        <v>2244.46142578125</v>
       </c>
       <c r="HT4" t="n">
-        <v>882.9111938476562</v>
+        <v>2235.721923828125</v>
       </c>
       <c r="HU4" t="n">
-        <v>838.4776611328125</v>
+        <v>2230.55322265625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2226.7763671875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2222.697265625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2221.2080078125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2220.892578125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2220.750244140625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2220.6904296875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2220.680908203125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2220.67724609375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2220.68798828125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2223.36376953125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2227.568359375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2229.962890625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2232.368896484375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2237.0341796875</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2241.07861328125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2257.791748046875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2259.20751953125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2266.404052734375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2282.511474609375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2287.094482421875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2287.816650390625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2298.9267578125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2316.08984375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2322.32958984375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2328.19384765625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2331.52587890625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2332.9921875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2334.101806640625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2336.10888671875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2336.3095703125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2336.341796875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2336.36962890625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2332.9404296875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2318.93505859375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2311.44677734375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2296.54150390625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2284.03466796875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2272.38720703125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2266.3515625</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2262.90283203125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2257.484375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2254.851318359375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2247.8291015625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2244.95703125</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2243.8349609375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2241.79345703125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2239.22119140625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2236.57861328125</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2233.1484375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2224.716552734375</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2218.37841796875</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2214.56689453125</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2214.04638671875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2213.439453125</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2212.73876953125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2211.65966796875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2210.9619140625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2210.19287109375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2209.3505859375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2208.2080078125</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2207.6728515625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2207.81396484375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2208.1083984375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2208.787109375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2214.37646484375</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2221.26123046875</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2228.58544921875</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2228.3369140625</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2227.76318359375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2226.24169921875</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2224.789794921875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2224.59521484375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2224.58349609375</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2224.625</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2224.6767578125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2224.77587890625</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2224.9111328125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2225.13916015625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2225.591796875</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2225.783203125</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2225.90283203125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2225.916015625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2225.756591796875</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2225.2900390625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2215.500732421875</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2200.403564453125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2175.2294921875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2151.4365234375</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2091.723388671875</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2029.677978515625</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1993.8583984375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1910.531005859375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1802.626953125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1715.177490234375</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1659.98193359375</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1607.84619140625</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1551.042236328125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1502.882202148438</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1423.249145507812</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1325.867553710938</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1254.365112304688</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1177.490356445312</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1045.864013671875</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>977.9680786132812</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>926.3778076171875</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>885.798583984375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>858.8456420898438</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>831.767578125</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>808.535888671875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>795.760986328125</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>792.33154296875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>790.8485717773438</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>790.6600341796875</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>790.65283203125</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>786.8662109375</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>764.97412109375</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>750.9605712890625</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>744.822021484375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>753.1025390625</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>790.1788330078125</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>813.8858642578125</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>867.2337646484375</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>900.032958984375</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>918.2532958984375</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>936.3399658203125</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>938.5237426757812</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>901.1083984375</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>876.912109375</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>831.6270141601562</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>781.626708984375</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>769.115966796875</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>764.5956420898438</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>754.1495971679688</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>736.3663330078125</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>717.0707397460938</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>710.7882080078125</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>710.3484497070312</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>713.60205078125</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>729.8154907226562</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>740.8795776367188</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>750.5205078125</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>764.9185791015625</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>778.0274658203125</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>784.6597900390625</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>785.5723876953125</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>785.6571044921875</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>785.47998046875</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>776.2606201171875</v>
       </c>
     </row>
   </sheetData>

--- a/neck_Data_Variable.xlsx
+++ b/neck_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>314.1369934082031</v>
+        <v>264.3456420898438</v>
       </c>
       <c r="B2" t="n">
-        <v>318.9413146972656</v>
+        <v>266.7763061523438</v>
       </c>
       <c r="C2" t="n">
-        <v>325.3867797851562</v>
+        <v>268.6709594726562</v>
       </c>
       <c r="D2" t="n">
-        <v>331.00439453125</v>
+        <v>270.7865905761719</v>
       </c>
       <c r="E2" t="n">
-        <v>339.2801513671875</v>
+        <v>273.6123352050781</v>
       </c>
       <c r="F2" t="n">
-        <v>350.4887390136719</v>
+        <v>277.9937438964844</v>
       </c>
       <c r="G2" t="n">
-        <v>363.0777282714844</v>
+        <v>282.9758911132812</v>
       </c>
       <c r="H2" t="n">
-        <v>372.9842529296875</v>
+        <v>288.9461059570312</v>
       </c>
       <c r="I2" t="n">
-        <v>381.1767272949219</v>
+        <v>294.105712890625</v>
       </c>
       <c r="J2" t="n">
-        <v>388.8468017578125</v>
+        <v>300.9074401855469</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0816345214844</v>
+        <v>306.7406005859375</v>
       </c>
       <c r="L2" t="n">
-        <v>405.33349609375</v>
+        <v>312.1984252929688</v>
       </c>
       <c r="M2" t="n">
-        <v>441.3095092773438</v>
+        <v>316.996337890625</v>
       </c>
       <c r="N2" t="n">
-        <v>443.0091857910156</v>
+        <v>323.2684020996094</v>
       </c>
       <c r="O2" t="n">
-        <v>444.0313415527344</v>
+        <v>351.9233703613281</v>
       </c>
       <c r="P2" t="n">
-        <v>441.9295654296875</v>
+        <v>353.4727478027344</v>
       </c>
       <c r="Q2" t="n">
-        <v>440.4673461914062</v>
+        <v>354.0523986816406</v>
       </c>
       <c r="R2" t="n">
-        <v>439.1416931152344</v>
+        <v>354.0774841308594</v>
       </c>
       <c r="S2" t="n">
-        <v>437.6422729492188</v>
+        <v>353.6748046875</v>
       </c>
       <c r="T2" t="n">
-        <v>434.5156555175781</v>
+        <v>352.5945739746094</v>
       </c>
       <c r="U2" t="n">
-        <v>430.7649536132812</v>
+        <v>351.5679321289062</v>
       </c>
       <c r="V2" t="n">
-        <v>423.8818664550781</v>
+        <v>350.8167114257812</v>
       </c>
       <c r="W2" t="n">
-        <v>417.323974609375</v>
+        <v>349.4409484863281</v>
       </c>
       <c r="X2" t="n">
-        <v>412.1726989746094</v>
+        <v>348.1437683105469</v>
       </c>
       <c r="Y2" t="n">
-        <v>408.0766296386719</v>
+        <v>346.1965637207031</v>
       </c>
       <c r="Z2" t="n">
-        <v>404.6021118164062</v>
+        <v>344.1628723144531</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.96630859375</v>
+        <v>342.6049499511719</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.7662658691406</v>
+        <v>341.6473999023438</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.214599609375</v>
+        <v>340.9815979003906</v>
       </c>
       <c r="AD2" t="n">
-        <v>389.1004943847656</v>
+        <v>340.5149536132812</v>
       </c>
       <c r="AE2" t="n">
-        <v>386.5178833007812</v>
+        <v>340.0913696289062</v>
       </c>
       <c r="AF2" t="n">
-        <v>383.94384765625</v>
+        <v>339.51513671875</v>
       </c>
       <c r="AG2" t="n">
-        <v>381.4772338867188</v>
+        <v>338.8453979492188</v>
       </c>
       <c r="AH2" t="n">
-        <v>379.8429870605469</v>
+        <v>337.81640625</v>
       </c>
       <c r="AI2" t="n">
-        <v>378.0846557617188</v>
+        <v>336.6583557128906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>376.8681640625</v>
+        <v>335.5894775390625</v>
       </c>
       <c r="AK2" t="n">
-        <v>375.2505187988281</v>
+        <v>334.6852416992188</v>
       </c>
       <c r="AL2" t="n">
-        <v>373.5196533203125</v>
+        <v>333.7731323242188</v>
       </c>
       <c r="AM2" t="n">
-        <v>371.807861328125</v>
+        <v>333.0127563476562</v>
       </c>
       <c r="AN2" t="n">
-        <v>370.4653625488281</v>
+        <v>332.2686157226562</v>
       </c>
       <c r="AO2" t="n">
-        <v>369.4682312011719</v>
+        <v>331.8703002929688</v>
       </c>
       <c r="AP2" t="n">
-        <v>368.3991088867188</v>
+        <v>331.4545288085938</v>
       </c>
       <c r="AQ2" t="n">
-        <v>367.4617004394531</v>
+        <v>330.9854431152344</v>
       </c>
       <c r="AR2" t="n">
-        <v>366.489013671875</v>
+        <v>330.6152954101562</v>
       </c>
       <c r="AS2" t="n">
-        <v>365.938232421875</v>
+        <v>330.3009643554688</v>
       </c>
       <c r="AT2" t="n">
-        <v>365.3496704101562</v>
+        <v>330.0038146972656</v>
       </c>
       <c r="AU2" t="n">
-        <v>365.0758666992188</v>
+        <v>329.7079162597656</v>
       </c>
       <c r="AV2" t="n">
-        <v>364.8241882324219</v>
+        <v>329.5869750976562</v>
       </c>
       <c r="AW2" t="n">
-        <v>364.77734375</v>
+        <v>329.5361938476562</v>
       </c>
       <c r="AX2" t="n">
-        <v>364.6781005859375</v>
+        <v>329.505615234375</v>
       </c>
       <c r="AY2" t="n">
-        <v>364.589599609375</v>
+        <v>329.4878540039062</v>
       </c>
       <c r="AZ2" t="n">
-        <v>364.4317626953125</v>
+        <v>329.4714050292969</v>
       </c>
       <c r="BA2" t="n">
-        <v>364.3631591796875</v>
+        <v>329.4536743164062</v>
       </c>
       <c r="BB2" t="n">
-        <v>364.172607421875</v>
+        <v>329.4365844726562</v>
       </c>
       <c r="BC2" t="n">
-        <v>364.0277709960938</v>
+        <v>329.4263305664062</v>
       </c>
       <c r="BD2" t="n">
-        <v>363.6546630859375</v>
+        <v>329.5595092773438</v>
       </c>
       <c r="BE2" t="n">
-        <v>363.1317749023438</v>
+        <v>330.0791015625</v>
       </c>
       <c r="BF2" t="n">
-        <v>362.50927734375</v>
+        <v>331.0107421875</v>
       </c>
       <c r="BG2" t="n">
-        <v>362.1115417480469</v>
+        <v>332.0409545898438</v>
       </c>
       <c r="BH2" t="n">
-        <v>361.197509765625</v>
+        <v>332.976318359375</v>
       </c>
       <c r="BI2" t="n">
-        <v>358.87109375</v>
+        <v>333.5614624023438</v>
       </c>
       <c r="BJ2" t="n">
-        <v>356.0051879882812</v>
+        <v>333.8458862304688</v>
       </c>
       <c r="BK2" t="n">
-        <v>351.9378051757812</v>
+        <v>333.9241943359375</v>
       </c>
       <c r="BL2" t="n">
-        <v>347.9949340820312</v>
+        <v>333.9619140625</v>
       </c>
       <c r="BM2" t="n">
-        <v>344.2373046875</v>
+        <v>333.97900390625</v>
       </c>
       <c r="BN2" t="n">
-        <v>340.9000244140625</v>
+        <v>333.9560546875</v>
       </c>
       <c r="BO2" t="n">
-        <v>334.4298706054688</v>
+        <v>333.9456787109375</v>
       </c>
       <c r="BP2" t="n">
-        <v>331.1986083984375</v>
+        <v>333.945068359375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>328.1072387695312</v>
+        <v>333.9449462890625</v>
       </c>
       <c r="BR2" t="n">
-        <v>325.3142700195312</v>
+        <v>333.9448852539062</v>
       </c>
       <c r="BS2" t="n">
-        <v>323.1690673828125</v>
+        <v>333.9448547363281</v>
       </c>
       <c r="BT2" t="n">
-        <v>321.2423706054688</v>
+        <v>333.945068359375</v>
       </c>
       <c r="BU2" t="n">
-        <v>319.8796691894531</v>
+        <v>333.947998046875</v>
       </c>
       <c r="BV2" t="n">
-        <v>318.5071411132812</v>
+        <v>333.9521484375</v>
       </c>
       <c r="BW2" t="n">
-        <v>317.6033630371094</v>
+        <v>333.9575500488281</v>
       </c>
       <c r="BX2" t="n">
-        <v>317.098388671875</v>
+        <v>333.9708862304688</v>
       </c>
       <c r="BY2" t="n">
-        <v>316.836669921875</v>
+        <v>333.9839172363281</v>
       </c>
       <c r="BZ2" t="n">
-        <v>316.8075256347656</v>
+        <v>333.9967041015625</v>
       </c>
       <c r="CA2" t="n">
-        <v>318.1115417480469</v>
+        <v>334.00732421875</v>
       </c>
       <c r="CB2" t="n">
-        <v>320.3504638671875</v>
+        <v>334.02490234375</v>
       </c>
       <c r="CC2" t="n">
-        <v>324.55712890625</v>
+        <v>334.0438537597656</v>
       </c>
       <c r="CD2" t="n">
-        <v>327.9473571777344</v>
+        <v>334.0656127929688</v>
       </c>
       <c r="CE2" t="n">
-        <v>334.5211181640625</v>
+        <v>334.0791625976562</v>
       </c>
       <c r="CF2" t="n">
-        <v>338.0535583496094</v>
+        <v>334.0858154296875</v>
       </c>
       <c r="CG2" t="n">
-        <v>341.0576171875</v>
+        <v>334.091796875</v>
       </c>
       <c r="CH2" t="n">
-        <v>346.8475341796875</v>
+        <v>334.0937805175781</v>
       </c>
       <c r="CI2" t="n">
-        <v>351.8932495117188</v>
+        <v>334.0953979492188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>356.0145874023438</v>
+        <v>334.0962524414062</v>
       </c>
       <c r="CK2" t="n">
-        <v>358.9824829101562</v>
+        <v>334.0971374511719</v>
       </c>
       <c r="CL2" t="n">
-        <v>361.8306274414062</v>
+        <v>334.0979614257812</v>
       </c>
       <c r="CM2" t="n">
-        <v>365.06201171875</v>
+        <v>334.0997924804688</v>
       </c>
       <c r="CN2" t="n">
-        <v>369.7949523925781</v>
+        <v>334.1017456054688</v>
       </c>
       <c r="CO2" t="n">
-        <v>371.8555297851562</v>
+        <v>334.1040344238281</v>
       </c>
       <c r="CP2" t="n">
-        <v>373.8160705566406</v>
+        <v>334.1070861816406</v>
       </c>
       <c r="CQ2" t="n">
-        <v>375.48388671875</v>
+        <v>334.1098022460938</v>
       </c>
       <c r="CR2" t="n">
-        <v>376.786865234375</v>
+        <v>334.1123046875</v>
       </c>
       <c r="CS2" t="n">
-        <v>377.8922119140625</v>
+        <v>334.1165771484375</v>
       </c>
       <c r="CT2" t="n">
-        <v>378.05322265625</v>
+        <v>334.1209716796875</v>
       </c>
       <c r="CU2" t="n">
-        <v>378.0671997070312</v>
+        <v>334.1255187988281</v>
       </c>
       <c r="CV2" t="n">
-        <v>377.1436157226562</v>
+        <v>334.1296691894531</v>
       </c>
       <c r="CW2" t="n">
-        <v>373.9761352539062</v>
+        <v>334.134033203125</v>
       </c>
       <c r="CX2" t="n">
-        <v>368.6181030273438</v>
+        <v>334.1360168457031</v>
       </c>
       <c r="CY2" t="n">
-        <v>366.4539184570312</v>
+        <v>334.1398315429688</v>
       </c>
       <c r="CZ2" t="n">
-        <v>362.4686279296875</v>
+        <v>334.1417846679688</v>
       </c>
       <c r="DA2" t="n">
-        <v>360.1710510253906</v>
+        <v>334.1436462402344</v>
       </c>
       <c r="DB2" t="n">
-        <v>357.3901672363281</v>
+        <v>334.14599609375</v>
       </c>
       <c r="DC2" t="n">
-        <v>353.115478515625</v>
+        <v>334.148193359375</v>
       </c>
       <c r="DD2" t="n">
-        <v>348.3296203613281</v>
+        <v>334.1503601074219</v>
       </c>
       <c r="DE2" t="n">
-        <v>340.6897583007812</v>
+        <v>334.1605224609375</v>
       </c>
       <c r="DF2" t="n">
-        <v>335.0989074707031</v>
+        <v>334.1733093261719</v>
       </c>
       <c r="DG2" t="n">
-        <v>332.0522766113281</v>
+        <v>334.1961059570312</v>
       </c>
       <c r="DH2" t="n">
-        <v>326.1782836914062</v>
+        <v>334.2141418457031</v>
       </c>
       <c r="DI2" t="n">
-        <v>323.522705078125</v>
+        <v>334.230712890625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>320.0440063476562</v>
+        <v>334.2416076660156</v>
       </c>
       <c r="DK2" t="n">
-        <v>317.1969909667969</v>
+        <v>334.2342529296875</v>
       </c>
       <c r="DL2" t="n">
-        <v>315.9100036621094</v>
+        <v>334.2232971191406</v>
       </c>
       <c r="DM2" t="n">
-        <v>314.6856079101562</v>
+        <v>334.1808776855469</v>
       </c>
       <c r="DN2" t="n">
-        <v>313.4119873046875</v>
+        <v>334.0895080566406</v>
       </c>
       <c r="DO2" t="n">
-        <v>312.0834350585938</v>
+        <v>333.99951171875</v>
       </c>
       <c r="DP2" t="n">
-        <v>311.1785888671875</v>
+        <v>333.9566040039062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>310.3302612304688</v>
+        <v>333.866943359375</v>
       </c>
       <c r="DR2" t="n">
-        <v>309.9920043945312</v>
+        <v>333.822998046875</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.8388366699219</v>
+        <v>333.7816772460938</v>
       </c>
       <c r="DT2" t="n">
-        <v>309.7525329589844</v>
+        <v>333.657958984375</v>
       </c>
       <c r="DU2" t="n">
-        <v>309.7843627929688</v>
+        <v>333.6149291992188</v>
       </c>
       <c r="DV2" t="n">
-        <v>309.9598388671875</v>
+        <v>333.5570678710938</v>
       </c>
       <c r="DW2" t="n">
-        <v>316.241455078125</v>
+        <v>333.5349731445312</v>
       </c>
       <c r="DX2" t="n">
-        <v>320.9488525390625</v>
+        <v>333.5147399902344</v>
       </c>
       <c r="DY2" t="n">
-        <v>324.8370666503906</v>
+        <v>333.4910278320312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>331.8961181640625</v>
+        <v>333.4842224121094</v>
       </c>
       <c r="EA2" t="n">
-        <v>335.4146728515625</v>
+        <v>333.4830322265625</v>
       </c>
       <c r="EB2" t="n">
-        <v>346.6871337890625</v>
+        <v>333.4822082519531</v>
       </c>
       <c r="EC2" t="n">
-        <v>353.9672241210938</v>
+        <v>333.4811401367188</v>
       </c>
       <c r="ED2" t="n">
-        <v>360.5953979492188</v>
+        <v>333.46142578125</v>
       </c>
       <c r="EE2" t="n">
-        <v>370.8924865722656</v>
+        <v>333.2725524902344</v>
       </c>
       <c r="EF2" t="n">
-        <v>385.4442138671875</v>
+        <v>332.2033081054688</v>
       </c>
       <c r="EG2" t="n">
-        <v>398.9565734863281</v>
+        <v>331.3233947753906</v>
       </c>
       <c r="EH2" t="n">
-        <v>405.5861206054688</v>
+        <v>330.0335998535156</v>
       </c>
       <c r="EI2" t="n">
-        <v>416.4617309570312</v>
+        <v>329.6346435546875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>421.4023132324219</v>
+        <v>329.4992065429688</v>
       </c>
       <c r="EK2" t="n">
-        <v>429.3309326171875</v>
+        <v>329.2798461914062</v>
       </c>
       <c r="EL2" t="n">
-        <v>432.2084350585938</v>
+        <v>329.19091796875</v>
       </c>
       <c r="EM2" t="n">
-        <v>436.2907104492188</v>
+        <v>329.162353515625</v>
       </c>
       <c r="EN2" t="n">
-        <v>438.2052307128906</v>
+        <v>329.0935974121094</v>
       </c>
       <c r="EO2" t="n">
-        <v>441.1004333496094</v>
+        <v>328.9085083007812</v>
       </c>
       <c r="EP2" t="n">
-        <v>443.5124206542969</v>
+        <v>328.82470703125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>447.3810119628906</v>
+        <v>328.6260986328125</v>
       </c>
       <c r="ER2" t="n">
-        <v>448.3477172851562</v>
+        <v>328.4827880859375</v>
       </c>
       <c r="ES2" t="n">
-        <v>448.7637939453125</v>
+        <v>328.4779357910156</v>
       </c>
       <c r="ET2" t="n">
-        <v>449.604248046875</v>
+        <v>328.4899291992188</v>
       </c>
       <c r="EU2" t="n">
-        <v>450.7230224609375</v>
+        <v>328.5344848632812</v>
       </c>
       <c r="EV2" t="n">
-        <v>451.55517578125</v>
+        <v>328.5987548828125</v>
       </c>
       <c r="EW2" t="n">
-        <v>451.5979614257812</v>
+        <v>328.6182250976562</v>
       </c>
       <c r="EX2" t="n">
-        <v>452.3333129882812</v>
+        <v>328.9238891601562</v>
       </c>
       <c r="EY2" t="n">
-        <v>453.4637145996094</v>
+        <v>329.3542785644531</v>
       </c>
       <c r="EZ2" t="n">
-        <v>454.3785400390625</v>
+        <v>330.6489562988281</v>
       </c>
       <c r="FA2" t="n">
-        <v>455.0817565917969</v>
+        <v>331.4844360351562</v>
       </c>
       <c r="FB2" t="n">
-        <v>455.2593994140625</v>
+        <v>332.31005859375</v>
       </c>
       <c r="FC2" t="n">
-        <v>454.0428161621094</v>
+        <v>333.9899291992188</v>
       </c>
       <c r="FD2" t="n">
-        <v>451.1135559082031</v>
+        <v>335.4175415039062</v>
       </c>
       <c r="FE2" t="n">
-        <v>450.663818359375</v>
+        <v>336.5475463867188</v>
       </c>
       <c r="FF2" t="n">
-        <v>450.6579284667969</v>
+        <v>339.3803100585938</v>
       </c>
       <c r="FG2" t="n">
-        <v>449.775146484375</v>
+        <v>340.5494995117188</v>
       </c>
       <c r="FH2" t="n">
-        <v>448.59033203125</v>
+        <v>342.5373840332031</v>
       </c>
       <c r="FI2" t="n">
-        <v>446.1981506347656</v>
+        <v>343.2763366699219</v>
       </c>
       <c r="FJ2" t="n">
-        <v>445.3100891113281</v>
+        <v>345.3371887207031</v>
       </c>
       <c r="FK2" t="n">
-        <v>443.9438171386719</v>
+        <v>347.5211181640625</v>
       </c>
       <c r="FL2" t="n">
-        <v>443.18701171875</v>
+        <v>348.4451904296875</v>
       </c>
       <c r="FM2" t="n">
-        <v>442.1708374023438</v>
+        <v>349.9511413574219</v>
       </c>
       <c r="FN2" t="n">
-        <v>441.4639892578125</v>
+        <v>350.8710327148438</v>
       </c>
       <c r="FO2" t="n">
-        <v>440.5906677246094</v>
+        <v>351.4691772460938</v>
       </c>
       <c r="FP2" t="n">
-        <v>437.4402465820312</v>
+        <v>350.6069641113281</v>
       </c>
       <c r="FQ2" t="n">
-        <v>433.201171875</v>
+        <v>349.87255859375</v>
       </c>
       <c r="FR2" t="n">
-        <v>429.3095397949219</v>
+        <v>348.4153747558594</v>
       </c>
       <c r="FS2" t="n">
-        <v>425.7852783203125</v>
+        <v>347.9605407714844</v>
       </c>
       <c r="FT2" t="n">
-        <v>421.5361938476562</v>
+        <v>346.6084594726562</v>
       </c>
       <c r="FU2" t="n">
-        <v>418.9390563964844</v>
+        <v>343.8844299316406</v>
       </c>
       <c r="FV2" t="n">
-        <v>410.4564819335938</v>
+        <v>340.49951171875</v>
       </c>
       <c r="FW2" t="n">
-        <v>404.2363891601562</v>
+        <v>333.7676696777344</v>
       </c>
       <c r="FX2" t="n">
-        <v>401.4514465332031</v>
+        <v>330.74560546875</v>
       </c>
       <c r="FY2" t="n">
-        <v>399.2055969238281</v>
+        <v>327.1584777832031</v>
       </c>
       <c r="FZ2" t="n">
-        <v>394.41748046875</v>
+        <v>325.6670837402344</v>
       </c>
       <c r="GA2" t="n">
-        <v>392.5264892578125</v>
+        <v>321.0317993164062</v>
       </c>
       <c r="GB2" t="n">
-        <v>389.5687561035156</v>
+        <v>318.4962158203125</v>
       </c>
       <c r="GC2" t="n">
-        <v>388.6800537109375</v>
+        <v>314.3753356933594</v>
       </c>
       <c r="GD2" t="n">
-        <v>387.4374694824219</v>
+        <v>312.2125244140625</v>
       </c>
       <c r="GE2" t="n">
-        <v>387.2467651367188</v>
+        <v>309.1654357910156</v>
       </c>
       <c r="GF2" t="n">
-        <v>387.7164916992188</v>
+        <v>307.4199523925781</v>
       </c>
       <c r="GG2" t="n">
-        <v>390.2252807617188</v>
+        <v>306.0924377441406</v>
       </c>
       <c r="GH2" t="n">
-        <v>392.391845703125</v>
+        <v>304.4397277832031</v>
       </c>
       <c r="GI2" t="n">
-        <v>392.68896484375</v>
+        <v>303.5003051757812</v>
       </c>
       <c r="GJ2" t="n">
-        <v>390.8672485351562</v>
+        <v>303.1444702148438</v>
       </c>
       <c r="GK2" t="n">
-        <v>389.4215087890625</v>
+        <v>302.6216430664062</v>
       </c>
       <c r="GL2" t="n">
-        <v>385.4932861328125</v>
+        <v>302.2705383300781</v>
       </c>
       <c r="GM2" t="n">
-        <v>381.3653259277344</v>
+        <v>301.9293212890625</v>
       </c>
       <c r="GN2" t="n">
-        <v>378.7807006835938</v>
+        <v>301.751708984375</v>
       </c>
       <c r="GO2" t="n">
-        <v>372.3844604492188</v>
+        <v>301.4524230957031</v>
       </c>
       <c r="GP2" t="n">
-        <v>365.43505859375</v>
+        <v>301.2301025390625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>354.6154174804688</v>
+        <v>300.9617614746094</v>
       </c>
       <c r="GR2" t="n">
-        <v>348.5437316894531</v>
+        <v>300.3656005859375</v>
       </c>
       <c r="GS2" t="n">
-        <v>343.3350219726562</v>
+        <v>300.0809020996094</v>
       </c>
       <c r="GT2" t="n">
-        <v>340.7421569824219</v>
+        <v>299.8029174804688</v>
       </c>
       <c r="GU2" t="n">
-        <v>335.0719909667969</v>
+        <v>299.247314453125</v>
       </c>
       <c r="GV2" t="n">
-        <v>330.9859619140625</v>
+        <v>298.6096801757812</v>
       </c>
       <c r="GW2" t="n">
-        <v>329.5413818359375</v>
+        <v>295.4750061035156</v>
       </c>
       <c r="GX2" t="n">
-        <v>327.2632141113281</v>
+        <v>286.4432373046875</v>
       </c>
       <c r="GY2" t="n">
-        <v>325.3033752441406</v>
+        <v>274.7056884765625</v>
       </c>
       <c r="GZ2" t="n">
-        <v>324.7275390625</v>
+        <v>263.1395874023438</v>
       </c>
       <c r="HA2" t="n">
-        <v>324.7524719238281</v>
+        <v>242.3297424316406</v>
       </c>
       <c r="HB2" t="n">
-        <v>324.7841796875</v>
+        <v>223.2578430175781</v>
       </c>
       <c r="HC2" t="n">
-        <v>324.8065795898438</v>
+        <v>203.5469665527344</v>
       </c>
       <c r="HD2" t="n">
-        <v>324.8196716308594</v>
+        <v>184.3456726074219</v>
       </c>
       <c r="HE2" t="n">
-        <v>324.8552856445312</v>
+        <v>167.8760375976562</v>
       </c>
       <c r="HF2" t="n">
-        <v>326.2725524902344</v>
+        <v>152.7831726074219</v>
       </c>
       <c r="HG2" t="n">
-        <v>330.3310546875</v>
+        <v>142.728271484375</v>
       </c>
       <c r="HH2" t="n">
-        <v>332.1478576660156</v>
+        <v>135.1633148193359</v>
       </c>
       <c r="HI2" t="n">
-        <v>333.5018310546875</v>
+        <v>125.722282409668</v>
       </c>
       <c r="HJ2" t="n">
-        <v>337.2117919921875</v>
+        <v>113.8197174072266</v>
       </c>
       <c r="HK2" t="n">
-        <v>345.3291320800781</v>
+        <v>104.6888885498047</v>
       </c>
       <c r="HL2" t="n">
-        <v>353.4287109375</v>
+        <v>102.1416320800781</v>
       </c>
       <c r="HM2" t="n">
-        <v>360.6748046875</v>
+        <v>103.4098968505859</v>
       </c>
       <c r="HN2" t="n">
-        <v>370.8294677734375</v>
+        <v>113.8015441894531</v>
       </c>
       <c r="HO2" t="n">
-        <v>386.9039916992188</v>
+        <v>135.2547912597656</v>
       </c>
       <c r="HP2" t="n">
-        <v>394.7983093261719</v>
+        <v>158.1441802978516</v>
       </c>
       <c r="HQ2" t="n">
-        <v>399.58984375</v>
+        <v>171.1871643066406</v>
       </c>
       <c r="HR2" t="n">
-        <v>412.3977355957031</v>
+        <v>179.8212432861328</v>
       </c>
       <c r="HS2" t="n">
-        <v>418.5745239257812</v>
+        <v>188.0061187744141</v>
       </c>
       <c r="HT2" t="n">
-        <v>423.4577026367188</v>
+        <v>197.8528594970703</v>
       </c>
       <c r="HU2" t="n">
-        <v>427.365966796875</v>
+        <v>209.4800109863281</v>
       </c>
       <c r="HV2" t="n">
-        <v>431.4561462402344</v>
+        <v>222.5825805664062</v>
       </c>
       <c r="HW2" t="n">
-        <v>435.3020629882812</v>
+        <v>240.8975524902344</v>
       </c>
       <c r="HX2" t="n">
-        <v>438.4448852539062</v>
+        <v>265.6963195800781</v>
       </c>
       <c r="HY2" t="n">
-        <v>439.55029296875</v>
+        <v>291.2002563476562</v>
       </c>
       <c r="HZ2" t="n">
-        <v>441.25439453125</v>
+        <v>309.8551635742188</v>
       </c>
       <c r="IA2" t="n">
-        <v>442.1466674804688</v>
+        <v>322.9284057617188</v>
       </c>
       <c r="IB2" t="n">
-        <v>442.1551818847656</v>
+        <v>337.4567260742188</v>
       </c>
       <c r="IC2" t="n">
-        <v>442.1181640625</v>
+        <v>349.1937866210938</v>
       </c>
       <c r="ID2" t="n">
-        <v>440.3046264648438</v>
+        <v>355.6083984375</v>
       </c>
       <c r="IE2" t="n">
-        <v>437.319580078125</v>
+        <v>359.3489990234375</v>
       </c>
       <c r="IF2" t="n">
-        <v>434.162109375</v>
+        <v>362.6312866210938</v>
       </c>
       <c r="IG2" t="n">
-        <v>430.7138671875</v>
+        <v>363.6066284179688</v>
       </c>
       <c r="IH2" t="n">
-        <v>423.2216796875</v>
+        <v>363.8140258789062</v>
       </c>
       <c r="II2" t="n">
-        <v>417.2600708007812</v>
+        <v>363.1630859375</v>
       </c>
       <c r="IJ2" t="n">
-        <v>409.2772827148438</v>
+        <v>359.8577575683594</v>
       </c>
       <c r="IK2" t="n">
-        <v>396.1926879882812</v>
+        <v>356.4426879882812</v>
       </c>
       <c r="IL2" t="n">
-        <v>391.3021850585938</v>
+        <v>350.90087890625</v>
       </c>
       <c r="IM2" t="n">
-        <v>381.62158203125</v>
+        <v>343.6921691894531</v>
       </c>
       <c r="IN2" t="n">
-        <v>366.8994445800781</v>
+        <v>319.666748046875</v>
       </c>
       <c r="IO2" t="n">
-        <v>360.0842895507812</v>
+        <v>314.8094177246094</v>
       </c>
       <c r="IP2" t="n">
-        <v>357.3932495117188</v>
+        <v>308.5083923339844</v>
       </c>
       <c r="IQ2" t="n">
-        <v>346.7346496582031</v>
+        <v>290.3389282226562</v>
       </c>
       <c r="IR2" t="n">
-        <v>339.4782104492188</v>
+        <v>284.3512573242188</v>
       </c>
       <c r="IS2" t="n">
-        <v>337.2662963867188</v>
+        <v>273.9837646484375</v>
       </c>
       <c r="IT2" t="n">
-        <v>331.4715576171875</v>
+        <v>265.5457763671875</v>
       </c>
       <c r="IU2" t="n">
-        <v>327.7353210449219</v>
+        <v>259.0178833007812</v>
       </c>
       <c r="IV2" t="n">
-        <v>325.88623046875</v>
+        <v>254.5279235839844</v>
       </c>
       <c r="IW2" t="n">
-        <v>325.1481628417969</v>
+        <v>251.1646118164062</v>
       </c>
       <c r="IX2" t="n">
-        <v>323.9403991699219</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>323.9203491210938</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>323.9711303710938</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>325.8881225585938</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>329.0599060058594</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>334.55615234375</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>338.05029296875</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>344.7901000976562</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>350.9813842773438</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>361.3222045898438</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>369.5989990234375</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>374.2635498046875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>379.4418640136719</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>385.9267883300781</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>392.1051025390625</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>395.8157653808594</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>400.6150512695312</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>405.13525390625</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>407.199462890625</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>408.865966796875</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>410.6776733398438</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>412.6756286621094</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>414.2043762207031</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>415.3099365234375</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>416.0219116210938</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>416.5501708984375</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>417.0861511230469</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>417.325927734375</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>417.4424438476562</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>417.5379943847656</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>417.614990234375</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>417.6748962402344</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>417.6961975097656</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>417.6712646484375</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>417.47314453125</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>416.9384155273438</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>416.3125610351562</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>415.6277465820312</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>414.7670288085938</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>414.4293823242188</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>414.197265625</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>414.2221069335938</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>414.3259887695312</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>414.7252197265625</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>415.3039245605469</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>416.7628173828125</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>417.8511352539062</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>418.7684326171875</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>419.1244506835938</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>419.2203979492188</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>419.4116516113281</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>419.5405883789062</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>419.8251037597656</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>420.1177673339844</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>420.6527099609375</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>422.2506103515625</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>423.5998229980469</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>424.4982299804688</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>425.7531127929688</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>425.6160888671875</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>425.586669921875</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>428.2544250488281</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>429.8869323730469</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>434.0447387695312</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>438.5535278320312</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>442.9713134765625</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>446.1024169921875</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>448.7615661621094</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>451.7592163085938</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>453.9291687011719</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>460.2074584960938</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>467.1611022949219</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>471.6718139648438</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>475.3137512207031</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>481.3662109375</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>480.2471618652344</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>476.52587890625</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>473.7582702636719</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>468.0181274414062</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>459.4622802734375</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>451.6320190429688</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>430.3610229492188</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>410.4314880371094</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>393.7178955078125</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>368.334716796875</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>341.0546264648438</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>326.4172668457031</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>314.8114013671875</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>313.3919982910156</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>315.3581848144531</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>337.8217163085938</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>355.1951599121094</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>362.3794860839844</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>375.7799682617188</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>385.0067749023438</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>389.5934753417969</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>393.3056030273438</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>394.3216552734375</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>391.6839599609375</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>388.3453063964844</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>385.0665283203125</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>394.8150634765625</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>390.1616821289062</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>371.3389282226562</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>358.2623291015625</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>355.2273559570312</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>352.1454467773438</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>350.2505798339844</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>350.0674133300781</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>349.9125366210938</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>351.1104736328125</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>357.0370788574219</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>363.9747619628906</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>369.1251220703125</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>369.5865173339844</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>369.3011474609375</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>369.2597045898438</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>369.256103515625</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>369.2615356445312</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>369.7741394042969</v>
+        <v>249.8607635498047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>141.153564453125</v>
+        <v>144.3794708251953</v>
       </c>
       <c r="B3" t="n">
-        <v>140.0915374755859</v>
+        <v>145.7706298828125</v>
       </c>
       <c r="C3" t="n">
-        <v>139.7276000976562</v>
+        <v>146.9862823486328</v>
       </c>
       <c r="D3" t="n">
-        <v>139.8923950195312</v>
+        <v>148.1819458007812</v>
       </c>
       <c r="E3" t="n">
-        <v>141.6998138427734</v>
+        <v>150.4035034179688</v>
       </c>
       <c r="F3" t="n">
-        <v>143.8845977783203</v>
+        <v>153.4912872314453</v>
       </c>
       <c r="G3" t="n">
-        <v>146.3038330078125</v>
+        <v>156.7813110351562</v>
       </c>
       <c r="H3" t="n">
-        <v>148.9572448730469</v>
+        <v>160.4966278076172</v>
       </c>
       <c r="I3" t="n">
-        <v>151.4232940673828</v>
+        <v>164.6771392822266</v>
       </c>
       <c r="J3" t="n">
-        <v>153.4200897216797</v>
+        <v>169.5876007080078</v>
       </c>
       <c r="K3" t="n">
-        <v>154.5127258300781</v>
+        <v>175.1082305908203</v>
       </c>
       <c r="L3" t="n">
-        <v>155.1646118164062</v>
+        <v>180.6986694335938</v>
       </c>
       <c r="M3" t="n">
-        <v>154.8784942626953</v>
+        <v>185.2620697021484</v>
       </c>
       <c r="N3" t="n">
-        <v>152.3583831787109</v>
+        <v>188.9850463867188</v>
       </c>
       <c r="O3" t="n">
-        <v>159.1847381591797</v>
+        <v>211.6890869140625</v>
       </c>
       <c r="P3" t="n">
-        <v>158.6563720703125</v>
+        <v>212.0414886474609</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.8661499023438</v>
+        <v>213.1010284423828</v>
       </c>
       <c r="R3" t="n">
-        <v>159.4453277587891</v>
+        <v>216.2367248535156</v>
       </c>
       <c r="S3" t="n">
-        <v>160.1781768798828</v>
+        <v>218.4720764160156</v>
       </c>
       <c r="T3" t="n">
-        <v>161.7795715332031</v>
+        <v>220.2602691650391</v>
       </c>
       <c r="U3" t="n">
-        <v>163.720703125</v>
+        <v>221.5765686035156</v>
       </c>
       <c r="V3" t="n">
-        <v>168.2939453125</v>
+        <v>223.2313385009766</v>
       </c>
       <c r="W3" t="n">
-        <v>171.7802734375</v>
+        <v>226.1820831298828</v>
       </c>
       <c r="X3" t="n">
-        <v>174.8025360107422</v>
+        <v>229.2584533691406</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.1883239746094</v>
+        <v>231.6229400634766</v>
       </c>
       <c r="Z3" t="n">
-        <v>181.4886322021484</v>
+        <v>233.1838531494141</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.4188995361328</v>
+        <v>234.3311004638672</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.7739868164062</v>
+        <v>235.0734558105469</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.7210083007812</v>
+        <v>236.0899963378906</v>
       </c>
       <c r="AD3" t="n">
-        <v>190.3257446289062</v>
+        <v>237.5968475341797</v>
       </c>
       <c r="AE3" t="n">
-        <v>191.4019012451172</v>
+        <v>238.9649505615234</v>
       </c>
       <c r="AF3" t="n">
-        <v>191.9111938476562</v>
+        <v>239.9195251464844</v>
       </c>
       <c r="AG3" t="n">
-        <v>192.2221984863281</v>
+        <v>240.5822448730469</v>
       </c>
       <c r="AH3" t="n">
-        <v>191.5585632324219</v>
+        <v>240.9205017089844</v>
       </c>
       <c r="AI3" t="n">
-        <v>190.6429748535156</v>
+        <v>241.0775146484375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>189.1205444335938</v>
+        <v>241.2127380371094</v>
       </c>
       <c r="AK3" t="n">
-        <v>188.4013519287109</v>
+        <v>241.4006958007812</v>
       </c>
       <c r="AL3" t="n">
-        <v>188.2955932617188</v>
+        <v>241.7060852050781</v>
       </c>
       <c r="AM3" t="n">
-        <v>188.3418426513672</v>
+        <v>242.3343658447266</v>
       </c>
       <c r="AN3" t="n">
-        <v>188.3998565673828</v>
+        <v>243.3727111816406</v>
       </c>
       <c r="AO3" t="n">
-        <v>188.4613037109375</v>
+        <v>244.3150787353516</v>
       </c>
       <c r="AP3" t="n">
-        <v>188.5285797119141</v>
+        <v>245.1274108886719</v>
       </c>
       <c r="AQ3" t="n">
-        <v>188.5970153808594</v>
+        <v>245.5844573974609</v>
       </c>
       <c r="AR3" t="n">
-        <v>188.6625061035156</v>
+        <v>245.9441986083984</v>
       </c>
       <c r="AS3" t="n">
-        <v>188.6666107177734</v>
+        <v>246.2074737548828</v>
       </c>
       <c r="AT3" t="n">
-        <v>188.5782318115234</v>
+        <v>246.4701690673828</v>
       </c>
       <c r="AU3" t="n">
-        <v>188.3746948242188</v>
+        <v>246.7066345214844</v>
       </c>
       <c r="AV3" t="n">
-        <v>188.1065368652344</v>
+        <v>247.0073089599609</v>
       </c>
       <c r="AW3" t="n">
-        <v>187.7885437011719</v>
+        <v>247.2801818847656</v>
       </c>
       <c r="AX3" t="n">
-        <v>187.4840850830078</v>
+        <v>247.6596374511719</v>
       </c>
       <c r="AY3" t="n">
-        <v>187.1572570800781</v>
+        <v>248.1060485839844</v>
       </c>
       <c r="AZ3" t="n">
-        <v>186.8154907226562</v>
+        <v>248.7638244628906</v>
       </c>
       <c r="BA3" t="n">
-        <v>186.4398040771484</v>
+        <v>249.0738525390625</v>
       </c>
       <c r="BB3" t="n">
-        <v>186.0892791748047</v>
+        <v>249.3333435058594</v>
       </c>
       <c r="BC3" t="n">
-        <v>185.7442779541016</v>
+        <v>249.4387969970703</v>
       </c>
       <c r="BD3" t="n">
-        <v>185.1270294189453</v>
+        <v>249.4626617431641</v>
       </c>
       <c r="BE3" t="n">
-        <v>184.4488830566406</v>
+        <v>249.4641265869141</v>
       </c>
       <c r="BF3" t="n">
-        <v>183.710693359375</v>
+        <v>249.4491882324219</v>
       </c>
       <c r="BG3" t="n">
-        <v>182.3325653076172</v>
+        <v>249.4318542480469</v>
       </c>
       <c r="BH3" t="n">
-        <v>180.5763854980469</v>
+        <v>249.4220123291016</v>
       </c>
       <c r="BI3" t="n">
-        <v>178.8127593994141</v>
+        <v>249.4117431640625</v>
       </c>
       <c r="BJ3" t="n">
-        <v>177.1884155273438</v>
+        <v>249.3963165283203</v>
       </c>
       <c r="BK3" t="n">
-        <v>176.1403656005859</v>
+        <v>249.3814697265625</v>
       </c>
       <c r="BL3" t="n">
-        <v>175.4389801025391</v>
+        <v>249.3806915283203</v>
       </c>
       <c r="BM3" t="n">
-        <v>174.9374542236328</v>
+        <v>249.3790283203125</v>
       </c>
       <c r="BN3" t="n">
-        <v>174.3277435302734</v>
+        <v>249.3783721923828</v>
       </c>
       <c r="BO3" t="n">
-        <v>172.6517639160156</v>
+        <v>249.3780059814453</v>
       </c>
       <c r="BP3" t="n">
-        <v>171.666748046875</v>
+        <v>249.3778686523438</v>
       </c>
       <c r="BQ3" t="n">
-        <v>170.8347015380859</v>
+        <v>249.3778381347656</v>
       </c>
       <c r="BR3" t="n">
-        <v>170.0823669433594</v>
+        <v>249.3777770996094</v>
       </c>
       <c r="BS3" t="n">
-        <v>169.3480834960938</v>
+        <v>249.377685546875</v>
       </c>
       <c r="BT3" t="n">
-        <v>168.7796936035156</v>
+        <v>249.377685546875</v>
       </c>
       <c r="BU3" t="n">
-        <v>168.3932495117188</v>
+        <v>249.3777770996094</v>
       </c>
       <c r="BV3" t="n">
-        <v>168.0583038330078</v>
+        <v>249.378173828125</v>
       </c>
       <c r="BW3" t="n">
-        <v>167.7333679199219</v>
+        <v>249.3792877197266</v>
       </c>
       <c r="BX3" t="n">
-        <v>167.4019927978516</v>
+        <v>249.3829498291016</v>
       </c>
       <c r="BY3" t="n">
-        <v>166.1804351806641</v>
+        <v>249.3863220214844</v>
       </c>
       <c r="BZ3" t="n">
-        <v>165.4983673095703</v>
+        <v>249.3896179199219</v>
       </c>
       <c r="CA3" t="n">
-        <v>164.9864044189453</v>
+        <v>249.3919677734375</v>
       </c>
       <c r="CB3" t="n">
-        <v>164.6715087890625</v>
+        <v>249.3992004394531</v>
       </c>
       <c r="CC3" t="n">
-        <v>164.5277862548828</v>
+        <v>249.4069061279297</v>
       </c>
       <c r="CD3" t="n">
-        <v>164.3230285644531</v>
+        <v>249.4165344238281</v>
       </c>
       <c r="CE3" t="n">
-        <v>163.9871978759766</v>
+        <v>249.4241790771484</v>
       </c>
       <c r="CF3" t="n">
-        <v>163.7336883544922</v>
+        <v>249.4270629882812</v>
       </c>
       <c r="CG3" t="n">
-        <v>163.5668792724609</v>
+        <v>249.4296722412109</v>
       </c>
       <c r="CH3" t="n">
-        <v>163.3377227783203</v>
+        <v>249.4307098388672</v>
       </c>
       <c r="CI3" t="n">
-        <v>163.1467132568359</v>
+        <v>249.4317016601562</v>
       </c>
       <c r="CJ3" t="n">
-        <v>162.9269561767578</v>
+        <v>249.4322204589844</v>
       </c>
       <c r="CK3" t="n">
-        <v>162.7675018310547</v>
+        <v>249.4327697753906</v>
       </c>
       <c r="CL3" t="n">
-        <v>162.5635375976562</v>
+        <v>249.4332733154297</v>
       </c>
       <c r="CM3" t="n">
-        <v>162.3628845214844</v>
+        <v>249.4344787597656</v>
       </c>
       <c r="CN3" t="n">
-        <v>161.8923187255859</v>
+        <v>249.4357147216797</v>
       </c>
       <c r="CO3" t="n">
-        <v>161.6912994384766</v>
+        <v>249.4371948242188</v>
       </c>
       <c r="CP3" t="n">
-        <v>161.4496307373047</v>
+        <v>249.4391784667969</v>
       </c>
       <c r="CQ3" t="n">
-        <v>161.2283477783203</v>
+        <v>249.4409484863281</v>
       </c>
       <c r="CR3" t="n">
-        <v>161.0381774902344</v>
+        <v>249.4425811767578</v>
       </c>
       <c r="CS3" t="n">
-        <v>160.8635101318359</v>
+        <v>249.4453277587891</v>
       </c>
       <c r="CT3" t="n">
-        <v>160.8710479736328</v>
+        <v>249.4481811523438</v>
       </c>
       <c r="CU3" t="n">
-        <v>160.8814544677734</v>
+        <v>249.4511108398438</v>
       </c>
       <c r="CV3" t="n">
-        <v>160.8907928466797</v>
+        <v>249.4537963867188</v>
       </c>
       <c r="CW3" t="n">
-        <v>160.9466552734375</v>
+        <v>249.4566040039062</v>
       </c>
       <c r="CX3" t="n">
-        <v>161.0688781738281</v>
+        <v>249.4578247070312</v>
       </c>
       <c r="CY3" t="n">
-        <v>161.1228179931641</v>
+        <v>249.4601135253906</v>
       </c>
       <c r="CZ3" t="n">
-        <v>161.2543182373047</v>
+        <v>249.4613189697266</v>
       </c>
       <c r="DA3" t="n">
-        <v>161.3216857910156</v>
+        <v>249.4623718261719</v>
       </c>
       <c r="DB3" t="n">
-        <v>161.3942718505859</v>
+        <v>249.4637756347656</v>
       </c>
       <c r="DC3" t="n">
-        <v>161.2556457519531</v>
+        <v>249.4651489257812</v>
       </c>
       <c r="DD3" t="n">
-        <v>161.2025756835938</v>
+        <v>249.4665222167969</v>
       </c>
       <c r="DE3" t="n">
-        <v>161.0912170410156</v>
+        <v>249.4734497070312</v>
       </c>
       <c r="DF3" t="n">
-        <v>161.1584930419922</v>
+        <v>249.4822540283203</v>
       </c>
       <c r="DG3" t="n">
-        <v>161.2200164794922</v>
+        <v>249.4977722167969</v>
       </c>
       <c r="DH3" t="n">
-        <v>161.4563446044922</v>
+        <v>249.5115509033203</v>
       </c>
       <c r="DI3" t="n">
-        <v>161.6026000976562</v>
+        <v>249.5244903564453</v>
       </c>
       <c r="DJ3" t="n">
-        <v>161.9529113769531</v>
+        <v>249.5336456298828</v>
       </c>
       <c r="DK3" t="n">
-        <v>162.2242736816406</v>
+        <v>249.5462341308594</v>
       </c>
       <c r="DL3" t="n">
-        <v>162.3327178955078</v>
+        <v>249.5484313964844</v>
       </c>
       <c r="DM3" t="n">
-        <v>162.4310607910156</v>
+        <v>249.5498962402344</v>
       </c>
       <c r="DN3" t="n">
-        <v>162.52587890625</v>
+        <v>249.5515747070312</v>
       </c>
       <c r="DO3" t="n">
-        <v>162.6248779296875</v>
+        <v>249.5614013671875</v>
       </c>
       <c r="DP3" t="n">
-        <v>162.7350463867188</v>
+        <v>249.5666656494141</v>
       </c>
       <c r="DQ3" t="n">
-        <v>162.9967193603516</v>
+        <v>249.5769958496094</v>
       </c>
       <c r="DR3" t="n">
-        <v>163.1194610595703</v>
+        <v>249.5822448730469</v>
       </c>
       <c r="DS3" t="n">
-        <v>163.2271423339844</v>
+        <v>249.5881805419922</v>
       </c>
       <c r="DT3" t="n">
-        <v>163.5143890380859</v>
+        <v>249.6083984375</v>
       </c>
       <c r="DU3" t="n">
-        <v>164.2238616943359</v>
+        <v>249.6119842529297</v>
       </c>
       <c r="DV3" t="n">
-        <v>165.2648315429688</v>
+        <v>249.6018829345703</v>
       </c>
       <c r="DW3" t="n">
-        <v>168.4409637451172</v>
+        <v>249.5955810546875</v>
       </c>
       <c r="DX3" t="n">
-        <v>169.6635284423828</v>
+        <v>249.5912322998047</v>
       </c>
       <c r="DY3" t="n">
-        <v>170.6352691650391</v>
+        <v>249.5968780517578</v>
       </c>
       <c r="DZ3" t="n">
-        <v>173.3894958496094</v>
+        <v>249.6172790527344</v>
       </c>
       <c r="EA3" t="n">
-        <v>174.8891143798828</v>
+        <v>249.6283416748047</v>
       </c>
       <c r="EB3" t="n">
-        <v>178.4396820068359</v>
+        <v>249.6542358398438</v>
       </c>
       <c r="EC3" t="n">
-        <v>180.6281433105469</v>
+        <v>249.6664276123047</v>
       </c>
       <c r="ED3" t="n">
-        <v>182.9384002685547</v>
+        <v>249.6892547607422</v>
       </c>
       <c r="EE3" t="n">
-        <v>186.7331085205078</v>
+        <v>249.7021026611328</v>
       </c>
       <c r="EF3" t="n">
-        <v>192.6181640625</v>
+        <v>249.7111968994141</v>
       </c>
       <c r="EG3" t="n">
-        <v>196.3308715820312</v>
+        <v>249.7140655517578</v>
       </c>
       <c r="EH3" t="n">
-        <v>197.2690734863281</v>
+        <v>249.7184143066406</v>
       </c>
       <c r="EI3" t="n">
-        <v>198.6355133056641</v>
+        <v>249.7203521728516</v>
       </c>
       <c r="EJ3" t="n">
-        <v>199.0323181152344</v>
+        <v>249.7222137451172</v>
       </c>
       <c r="EK3" t="n">
-        <v>198.5901336669922</v>
+        <v>249.7685546875</v>
       </c>
       <c r="EL3" t="n">
-        <v>197.8078002929688</v>
+        <v>249.8096466064453</v>
       </c>
       <c r="EM3" t="n">
-        <v>196.9676971435547</v>
+        <v>249.8269348144531</v>
       </c>
       <c r="EN3" t="n">
-        <v>196.9474029541016</v>
+        <v>249.8349609375</v>
       </c>
       <c r="EO3" t="n">
-        <v>197.3177337646484</v>
+        <v>249.7912750244141</v>
       </c>
       <c r="EP3" t="n">
-        <v>198.5267181396484</v>
+        <v>249.7346343994141</v>
       </c>
       <c r="EQ3" t="n">
-        <v>204.4501190185547</v>
+        <v>249.5800476074219</v>
       </c>
       <c r="ER3" t="n">
-        <v>206.1202697753906</v>
+        <v>249.3086853027344</v>
       </c>
       <c r="ES3" t="n">
-        <v>209.8913726806641</v>
+        <v>249.1485443115234</v>
       </c>
       <c r="ET3" t="n">
-        <v>213.7942504882812</v>
+        <v>248.9930267333984</v>
       </c>
       <c r="EU3" t="n">
-        <v>215.5774688720703</v>
+        <v>248.66650390625</v>
       </c>
       <c r="EV3" t="n">
-        <v>216.6211700439453</v>
+        <v>248.1402435302734</v>
       </c>
       <c r="EW3" t="n">
-        <v>217.9809875488281</v>
+        <v>247.8839416503906</v>
       </c>
       <c r="EX3" t="n">
-        <v>220.1735534667969</v>
+        <v>247.3279113769531</v>
       </c>
       <c r="EY3" t="n">
-        <v>221.1657104492188</v>
+        <v>246.9910583496094</v>
       </c>
       <c r="EZ3" t="n">
-        <v>221.8280181884766</v>
+        <v>245.6977233886719</v>
       </c>
       <c r="FA3" t="n">
-        <v>223.4587707519531</v>
+        <v>244.9555511474609</v>
       </c>
       <c r="FB3" t="n">
-        <v>224.9012298583984</v>
+        <v>244.1236572265625</v>
       </c>
       <c r="FC3" t="n">
-        <v>228.0793609619141</v>
+        <v>242.9569549560547</v>
       </c>
       <c r="FD3" t="n">
-        <v>230.576904296875</v>
+        <v>241.5547332763672</v>
       </c>
       <c r="FE3" t="n">
-        <v>231.6586151123047</v>
+        <v>240.7142333984375</v>
       </c>
       <c r="FF3" t="n">
-        <v>232.8987731933594</v>
+        <v>238.1683654785156</v>
       </c>
       <c r="FG3" t="n">
-        <v>235.7412719726562</v>
+        <v>236.2115173339844</v>
       </c>
       <c r="FH3" t="n">
-        <v>236.7625732421875</v>
+        <v>233.6558990478516</v>
       </c>
       <c r="FI3" t="n">
-        <v>239.5834655761719</v>
+        <v>233.0008544921875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>242.2406158447266</v>
+        <v>231.9495697021484</v>
       </c>
       <c r="FK3" t="n">
-        <v>246.1936798095703</v>
+        <v>230.5084228515625</v>
       </c>
       <c r="FL3" t="n">
-        <v>247.101806640625</v>
+        <v>229.8437805175781</v>
       </c>
       <c r="FM3" t="n">
-        <v>247.527587890625</v>
+        <v>227.7828979492188</v>
       </c>
       <c r="FN3" t="n">
-        <v>247.3474731445312</v>
+        <v>225.697998046875</v>
       </c>
       <c r="FO3" t="n">
-        <v>247.1623992919922</v>
+        <v>222.2211303710938</v>
       </c>
       <c r="FP3" t="n">
-        <v>246.9822387695312</v>
+        <v>220.5431365966797</v>
       </c>
       <c r="FQ3" t="n">
-        <v>246.8955535888672</v>
+        <v>219.9967346191406</v>
       </c>
       <c r="FR3" t="n">
-        <v>246.8562622070312</v>
+        <v>218.9527740478516</v>
       </c>
       <c r="FS3" t="n">
-        <v>246.8147888183594</v>
+        <v>218.3142395019531</v>
       </c>
       <c r="FT3" t="n">
-        <v>246.7976226806641</v>
+        <v>216.2203674316406</v>
       </c>
       <c r="FU3" t="n">
-        <v>246.8377380371094</v>
+        <v>214.3488922119141</v>
       </c>
       <c r="FV3" t="n">
-        <v>250.0017700195312</v>
+        <v>212.6443786621094</v>
       </c>
       <c r="FW3" t="n">
-        <v>252.9747161865234</v>
+        <v>205.1570587158203</v>
       </c>
       <c r="FX3" t="n">
-        <v>253.7777099609375</v>
+        <v>201.7980194091797</v>
       </c>
       <c r="FY3" t="n">
-        <v>254.3303833007812</v>
+        <v>197.7049865722656</v>
       </c>
       <c r="FZ3" t="n">
-        <v>254.5920715332031</v>
+        <v>195.6392517089844</v>
       </c>
       <c r="GA3" t="n">
-        <v>254.6639404296875</v>
+        <v>192.2486114501953</v>
       </c>
       <c r="GB3" t="n">
-        <v>254.1304168701172</v>
+        <v>191.1838226318359</v>
       </c>
       <c r="GC3" t="n">
-        <v>253.429931640625</v>
+        <v>189.5157470703125</v>
       </c>
       <c r="GD3" t="n">
-        <v>252.2427673339844</v>
+        <v>188.2332305908203</v>
       </c>
       <c r="GE3" t="n">
-        <v>252.1023864746094</v>
+        <v>184.4779052734375</v>
       </c>
       <c r="GF3" t="n">
-        <v>251.8326110839844</v>
+        <v>180.9441223144531</v>
       </c>
       <c r="GG3" t="n">
-        <v>251.716796875</v>
+        <v>179.4043884277344</v>
       </c>
       <c r="GH3" t="n">
-        <v>251.5912933349609</v>
+        <v>177.1654357910156</v>
       </c>
       <c r="GI3" t="n">
-        <v>251.4197387695312</v>
+        <v>175.0892333984375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>250.7551879882812</v>
+        <v>173.8730010986328</v>
       </c>
       <c r="GK3" t="n">
-        <v>250.3043823242188</v>
+        <v>171.2852020263672</v>
       </c>
       <c r="GL3" t="n">
-        <v>249.1148223876953</v>
+        <v>168.7698974609375</v>
       </c>
       <c r="GM3" t="n">
-        <v>248.4961547851562</v>
+        <v>164.7360382080078</v>
       </c>
       <c r="GN3" t="n">
-        <v>248.4018859863281</v>
+        <v>160.9496154785156</v>
       </c>
       <c r="GO3" t="n">
-        <v>248.3678894042969</v>
+        <v>150.4222564697266</v>
       </c>
       <c r="GP3" t="n">
-        <v>248.3827667236328</v>
+        <v>141.6199493408203</v>
       </c>
       <c r="GQ3" t="n">
-        <v>248.8819274902344</v>
+        <v>137.0874176025391</v>
       </c>
       <c r="GR3" t="n">
-        <v>249.2444152832031</v>
+        <v>129.5122375488281</v>
       </c>
       <c r="GS3" t="n">
-        <v>248.8164672851562</v>
+        <v>126.9835586547852</v>
       </c>
       <c r="GT3" t="n">
-        <v>248.2105712890625</v>
+        <v>124.6893920898438</v>
       </c>
       <c r="GU3" t="n">
-        <v>247.0058135986328</v>
+        <v>120.5210037231445</v>
       </c>
       <c r="GV3" t="n">
-        <v>246.165283203125</v>
+        <v>116.0024185180664</v>
       </c>
       <c r="GW3" t="n">
-        <v>246.0245361328125</v>
+        <v>110.8109359741211</v>
       </c>
       <c r="GX3" t="n">
-        <v>245.9062347412109</v>
+        <v>106.06689453125</v>
       </c>
       <c r="GY3" t="n">
-        <v>245.7825622558594</v>
+        <v>101.6631164550781</v>
       </c>
       <c r="GZ3" t="n">
-        <v>245.6320037841797</v>
+        <v>98.99725341796875</v>
       </c>
       <c r="HA3" t="n">
-        <v>245.4650726318359</v>
+        <v>105.4718399047852</v>
       </c>
       <c r="HB3" t="n">
-        <v>245.1188049316406</v>
+        <v>110.4021835327148</v>
       </c>
       <c r="HC3" t="n">
-        <v>244.6776580810547</v>
+        <v>117.5497665405273</v>
       </c>
       <c r="HD3" t="n">
-        <v>244.4456634521484</v>
+        <v>125.9847717285156</v>
       </c>
       <c r="HE3" t="n">
-        <v>243.9386901855469</v>
+        <v>131.0533905029297</v>
       </c>
       <c r="HF3" t="n">
-        <v>243.8043518066406</v>
+        <v>132.266845703125</v>
       </c>
       <c r="HG3" t="n">
-        <v>243.7794189453125</v>
+        <v>132.0202178955078</v>
       </c>
       <c r="HH3" t="n">
-        <v>243.7799224853516</v>
+        <v>132.2281799316406</v>
       </c>
       <c r="HI3" t="n">
-        <v>243.7802124023438</v>
+        <v>136.8120422363281</v>
       </c>
       <c r="HJ3" t="n">
-        <v>243.7857971191406</v>
+        <v>143.774658203125</v>
       </c>
       <c r="HK3" t="n">
-        <v>244.1889038085938</v>
+        <v>148.2819671630859</v>
       </c>
       <c r="HL3" t="n">
-        <v>245.4489593505859</v>
+        <v>148.5871429443359</v>
       </c>
       <c r="HM3" t="n">
-        <v>246.9633636474609</v>
+        <v>148.0960845947266</v>
       </c>
       <c r="HN3" t="n">
-        <v>248.3657684326172</v>
+        <v>141.8898468017578</v>
       </c>
       <c r="HO3" t="n">
-        <v>247.8537139892578</v>
+        <v>135.832763671875</v>
       </c>
       <c r="HP3" t="n">
-        <v>246.3025207519531</v>
+        <v>139.7705841064453</v>
       </c>
       <c r="HQ3" t="n">
-        <v>245.8243255615234</v>
+        <v>146.5352935791016</v>
       </c>
       <c r="HR3" t="n">
-        <v>244.4024353027344</v>
+        <v>154.7491302490234</v>
       </c>
       <c r="HS3" t="n">
-        <v>244.0235748291016</v>
+        <v>165.2161407470703</v>
       </c>
       <c r="HT3" t="n">
-        <v>243.8226165771484</v>
+        <v>178.2696990966797</v>
       </c>
       <c r="HU3" t="n">
-        <v>243.7707977294922</v>
+        <v>195.7172393798828</v>
       </c>
       <c r="HV3" t="n">
-        <v>243.7565765380859</v>
+        <v>218.4372711181641</v>
       </c>
       <c r="HW3" t="n">
-        <v>243.7668762207031</v>
+        <v>241.8723754882812</v>
       </c>
       <c r="HX3" t="n">
-        <v>243.7752380371094</v>
+        <v>257.1896057128906</v>
       </c>
       <c r="HY3" t="n">
-        <v>243.7785797119141</v>
+        <v>264.0203552246094</v>
       </c>
       <c r="HZ3" t="n">
-        <v>243.7873992919922</v>
+        <v>267.6962890625</v>
       </c>
       <c r="IA3" t="n">
-        <v>243.9008941650391</v>
+        <v>268.6129455566406</v>
       </c>
       <c r="IB3" t="n">
-        <v>243.9633483886719</v>
+        <v>269.6863098144531</v>
       </c>
       <c r="IC3" t="n">
-        <v>244.2458801269531</v>
+        <v>272.2949523925781</v>
       </c>
       <c r="ID3" t="n">
-        <v>244.9302825927734</v>
+        <v>276.4475402832031</v>
       </c>
       <c r="IE3" t="n">
-        <v>246.5619812011719</v>
+        <v>279.1941833496094</v>
       </c>
       <c r="IF3" t="n">
-        <v>247.7059020996094</v>
+        <v>281.8547668457031</v>
       </c>
       <c r="IG3" t="n">
-        <v>247.8590087890625</v>
+        <v>282.9135131835938</v>
       </c>
       <c r="IH3" t="n">
-        <v>247.8586883544922</v>
+        <v>283.1486511230469</v>
       </c>
       <c r="II3" t="n">
-        <v>247.8565673828125</v>
+        <v>283.5791320800781</v>
       </c>
       <c r="IJ3" t="n">
-        <v>248.1103668212891</v>
+        <v>282.767333984375</v>
       </c>
       <c r="IK3" t="n">
-        <v>248.2638397216797</v>
+        <v>280.9017944335938</v>
       </c>
       <c r="IL3" t="n">
-        <v>248.5009307861328</v>
+        <v>278.6749877929688</v>
       </c>
       <c r="IM3" t="n">
-        <v>248.9023590087891</v>
+        <v>278.2653198242188</v>
       </c>
       <c r="IN3" t="n">
-        <v>249.2119140625</v>
+        <v>269.3773803710938</v>
       </c>
       <c r="IO3" t="n">
-        <v>249.3326263427734</v>
+        <v>266.8618774414062</v>
       </c>
       <c r="IP3" t="n">
-        <v>249.355224609375</v>
+        <v>266.8118591308594</v>
       </c>
       <c r="IQ3" t="n">
-        <v>248.6537628173828</v>
+        <v>267.9120483398438</v>
       </c>
       <c r="IR3" t="n">
-        <v>247.7004699707031</v>
+        <v>268.173095703125</v>
       </c>
       <c r="IS3" t="n">
-        <v>247.2482299804688</v>
+        <v>268.4926452636719</v>
       </c>
       <c r="IT3" t="n">
-        <v>246.9874420166016</v>
+        <v>268.3172607421875</v>
       </c>
       <c r="IU3" t="n">
-        <v>246.9692840576172</v>
+        <v>264.0639038085938</v>
       </c>
       <c r="IV3" t="n">
-        <v>246.9634399414062</v>
+        <v>256.4924621582031</v>
       </c>
       <c r="IW3" t="n">
-        <v>246.9597473144531</v>
+        <v>248.2527008056641</v>
       </c>
       <c r="IX3" t="n">
-        <v>246.9532012939453</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>246.9525756835938</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>246.9524536132812</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>246.9523773193359</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>246.9625854492188</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>247.0335998535156</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>247.0752563476562</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>247.1231384277344</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>247.1601715087891</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>247.1935577392578</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>247.011962890625</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>246.7814025878906</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>246.0676574707031</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>244.9926605224609</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>244.1725769042969</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>244.0928344726562</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>244.0094299316406</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>243.9520111083984</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>243.9512939453125</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>243.9458312988281</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>243.9472351074219</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>243.9612884521484</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>243.972412109375</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>243.9792022705078</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>243.9801330566406</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>243.9812316894531</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>243.9825134277344</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>243.9847106933594</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>243.9861450195312</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>243.9876403808594</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>243.9892425537109</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>243.9913787841797</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>243.9923553466797</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>243.9920959472656</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>243.9915618896484</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>243.9902648925781</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>243.9801635742188</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>243.9675750732422</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>243.9539642333984</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>243.9540710449219</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>243.9512176513672</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>243.9444580078125</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>243.9298400878906</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>243.9103393554688</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>243.8837890625</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>243.8382873535156</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>243.8155517578125</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>243.7931976318359</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>243.7790069580078</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>243.7625885009766</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>243.754638671875</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>243.7531433105469</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>243.7528686523438</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>243.7528839111328</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>243.7533264160156</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>243.7541809082031</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>243.7707977294922</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>243.7967224121094</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>243.8321685791016</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>243.7388916015625</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>240.9487457275391</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>239.3567352294922</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>237.9463653564453</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>234.0785064697266</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>226.6302795410156</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>217.9669036865234</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>213.8246917724609</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>211.4008026123047</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>204.1715850830078</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>199.8369750976562</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>193.3069610595703</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>187.9474945068359</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>183.9659423828125</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>177.7306060791016</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>159.4803466796875</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>144.5880889892578</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>124.4731826782227</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>106.6398849487305</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>100.3414459228516</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>94.55751800537109</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>90.11492156982422</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>91.01846313476562</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>96.92921447753906</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>100.5110168457031</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>99.52400207519531</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>93.81472778320312</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>96.35934448242188</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>111.9666748046875</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>129.6763916015625</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>151.3623809814453</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>207.7724609375</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>255.1980438232422</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>272.3445129394531</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>298.2596740722656</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>300.3766174316406</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>297.8501892089844</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>295.3856506347656</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>294.7401123046875</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>296.7156677246094</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>298.3639526367188</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>300.7092590332031</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>302.1753540039062</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>295.9807434082031</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>284.7876281738281</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>275.0810852050781</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>268.8943481445312</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>257.2598571777344</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>246.9417877197266</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>241.8472747802734</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>237.9381561279297</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>237.73876953125</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>241.7140350341797</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>249.5424194335938</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>258.1076354980469</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>261.4095153808594</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>264.1317138671875</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>266.1512756347656</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>266.5861511230469</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>266.6166381835938</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>266.7156066894531</v>
+        <v>241.6306915283203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1021.910827636719</v>
+        <v>977.1547241210938</v>
       </c>
       <c r="B4" t="n">
-        <v>1028.33935546875</v>
+        <v>990.4555053710938</v>
       </c>
       <c r="C4" t="n">
-        <v>1032.1494140625</v>
+        <v>1002.237915039062</v>
       </c>
       <c r="D4" t="n">
-        <v>1036.458129882812</v>
+        <v>1013.26220703125</v>
       </c>
       <c r="E4" t="n">
-        <v>1042.226806640625</v>
+        <v>1031.831787109375</v>
       </c>
       <c r="F4" t="n">
-        <v>1051.448486328125</v>
+        <v>1056.486328125</v>
       </c>
       <c r="G4" t="n">
-        <v>1063.38427734375</v>
+        <v>1083.499877929688</v>
       </c>
       <c r="H4" t="n">
-        <v>1074.514282226562</v>
+        <v>1110.998046875</v>
       </c>
       <c r="I4" t="n">
-        <v>1084.00341796875</v>
+        <v>1132.036865234375</v>
       </c>
       <c r="J4" t="n">
-        <v>1092.271850585938</v>
+        <v>1157.163696289062</v>
       </c>
       <c r="K4" t="n">
-        <v>1100.40380859375</v>
+        <v>1186.757568359375</v>
       </c>
       <c r="L4" t="n">
-        <v>1108.786376953125</v>
+        <v>1217.691162109375</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.058959960938</v>
+        <v>1249.385009765625</v>
       </c>
       <c r="N4" t="n">
-        <v>1183.432006835938</v>
+        <v>1281.567626953125</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.988647460938</v>
+        <v>1543.385009765625</v>
       </c>
       <c r="P4" t="n">
-        <v>1231.766723632812</v>
+        <v>1566.448608398438</v>
       </c>
       <c r="Q4" t="n">
-        <v>1240.798095703125</v>
+        <v>1587.00439453125</v>
       </c>
       <c r="R4" t="n">
-        <v>1249.224365234375</v>
+        <v>1605.598510742188</v>
       </c>
       <c r="S4" t="n">
-        <v>1257.776611328125</v>
+        <v>1625.324462890625</v>
       </c>
       <c r="T4" t="n">
-        <v>1275.363403320312</v>
+        <v>1649.448486328125</v>
       </c>
       <c r="U4" t="n">
-        <v>1291.95361328125</v>
+        <v>1676.565185546875</v>
       </c>
       <c r="V4" t="n">
-        <v>1312.78125</v>
+        <v>1699.075439453125</v>
       </c>
       <c r="W4" t="n">
-        <v>1334.397705078125</v>
+        <v>1717.262817382812</v>
       </c>
       <c r="X4" t="n">
-        <v>1353.47509765625</v>
+        <v>1735.927734375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1367.252197265625</v>
+        <v>1759.96484375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1377.82666015625</v>
+        <v>1785.842041015625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1392.393310546875</v>
+        <v>1807.324829101562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1405.339111328125</v>
+        <v>1827.350341796875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1416.279296875</v>
+        <v>1845.76025390625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1426.584716796875</v>
+        <v>1863.117919921875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1439.183715820312</v>
+        <v>1879.45458984375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1449.194458007812</v>
+        <v>1900.8486328125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1456.677978515625</v>
+        <v>1921.17041015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1463.636474609375</v>
+        <v>1948.930786132812</v>
       </c>
       <c r="AI4" t="n">
-        <v>1469.17626953125</v>
+        <v>1969.046630859375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1475.008422851562</v>
+        <v>1983.233154296875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1478.256469726562</v>
+        <v>1991.8759765625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1479.332763671875</v>
+        <v>1999.181640625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1479.696044921875</v>
+        <v>2005.685302734375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1479.816040039062</v>
+        <v>2013.031005859375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1479.865600585938</v>
+        <v>2021.02197265625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1479.883422851562</v>
+        <v>2029.009399414062</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1479.889404296875</v>
+        <v>2038.311157226562</v>
       </c>
       <c r="AR4" t="n">
-        <v>1479.869140625</v>
+        <v>2046.98095703125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1478.275512695312</v>
+        <v>2053.916015625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1473.949096679688</v>
+        <v>2059.943359375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1466.3447265625</v>
+        <v>2065.376708984375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1457.72705078125</v>
+        <v>2069.874755859375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1448.567260742188</v>
+        <v>2075.18505859375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1440.1220703125</v>
+        <v>2080.357666015625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1431.458740234375</v>
+        <v>2083.87890625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1422.567260742188</v>
+        <v>2087.435546875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1412.63623046875</v>
+        <v>2091.36328125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1403.49365234375</v>
+        <v>2095.23681640625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1394.7236328125</v>
+        <v>2099.001708984375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1387.7626953125</v>
+        <v>2104.583984375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1380.792114257812</v>
+        <v>2109.25341796875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1373.254272460938</v>
+        <v>2114.97802734375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1364.330078125</v>
+        <v>2119.98046875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1356.16943359375</v>
+        <v>2122.7587890625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1349.529907226562</v>
+        <v>2125.34326171875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1343.574829101562</v>
+        <v>2128.968017578125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1337.34375</v>
+        <v>2132.40380859375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1330.638427734375</v>
+        <v>2132.60693359375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1324.006225585938</v>
+        <v>2133.004150390625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1316.409912109375</v>
+        <v>2133.162841796875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1305.343627929688</v>
+        <v>2133.258056640625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1301.466552734375</v>
+        <v>2133.283203125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1297.17578125</v>
+        <v>2133.295654296875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1292.7490234375</v>
+        <v>2133.30859375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1289.02587890625</v>
+        <v>2133.3203125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1285.086181640625</v>
+        <v>2133.32080078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1281.490966796875</v>
+        <v>2133.30859375</v>
       </c>
       <c r="BV4" t="n">
-        <v>1278.458618164062</v>
+        <v>2133.212158203125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1275.6591796875</v>
+        <v>2132.960205078125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1272.865600585938</v>
+        <v>2132.12939453125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1268.009033203125</v>
+        <v>2131.361572265625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1263.816284179688</v>
+        <v>2130.61279296875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1258.792114257812</v>
+        <v>2130.08251953125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1254.050048828125</v>
+        <v>2128.44287109375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1250.116455078125</v>
+        <v>2126.69873046875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1245.75244140625</v>
+        <v>2124.52294921875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1239.93798828125</v>
+        <v>2122.802001953125</v>
       </c>
       <c r="CF4" t="n">
-        <v>1237.65087890625</v>
+        <v>2122.150390625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1234.505859375</v>
+        <v>2121.561767578125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1230.6220703125</v>
+        <v>2121.330078125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1227.786987304688</v>
+        <v>2121.107421875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1224.645874023438</v>
+        <v>2120.989501953125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1222.7529296875</v>
+        <v>2120.86669921875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1221.546875</v>
+        <v>2120.75341796875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1220.11962890625</v>
+        <v>2120.4814453125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1218.55224609375</v>
+        <v>2120.2060546875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1218.033447265625</v>
+        <v>2119.870361328125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1217.685424804688</v>
+        <v>2119.425048828125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1217.3271484375</v>
+        <v>2119.029541015625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1217.215576171875</v>
+        <v>2118.6611328125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1217.160766601562</v>
+        <v>2118.0380859375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1217.156616210938</v>
+        <v>2117.39111328125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1217.15625</v>
+        <v>2116.726806640625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1217.15625</v>
+        <v>2116.119140625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1217.943603515625</v>
+        <v>2115.479248046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1219.778076171875</v>
+        <v>2115.2001953125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1220.605224609375</v>
+        <v>2114.6630859375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1222.638793945312</v>
+        <v>2114.384765625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1223.684814453125</v>
+        <v>2114.123046875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1224.8154296875</v>
+        <v>2113.7880859375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1226.193237304688</v>
+        <v>2113.46435546875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1227.95068359375</v>
+        <v>2113.13525390625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1231.392944335938</v>
+        <v>2111.61279296875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1233.713623046875</v>
+        <v>2109.706787109375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1234.874389648438</v>
+        <v>2106.321044921875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1237.400146484375</v>
+        <v>2103.380859375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1238.8125</v>
+        <v>2100.6650390625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1243.095703125</v>
+        <v>2098.78759765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1247.703857421875</v>
+        <v>2096.30029296875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1249.424560546875</v>
+        <v>2095.947265625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1250.965576171875</v>
+        <v>2095.77392578125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1252.453247070312</v>
+        <v>2095.6708984375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1254.0087890625</v>
+        <v>2095.640869140625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1255.751708984375</v>
+        <v>2095.63525390625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1259.922241210938</v>
+        <v>2095.63330078125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1261.866333007812</v>
+        <v>2095.63330078125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1263.556762695312</v>
+        <v>2095.63330078125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1267.784545898438</v>
+        <v>2095.830078125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1274.498046875</v>
+        <v>2096.4609375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1278.027099609375</v>
+        <v>2101.668701171875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1285.723999023438</v>
+        <v>2104.537353515625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1291.330810546875</v>
+        <v>2107.47314453125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1296.86669921875</v>
+        <v>2110.803955078125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1313.15625</v>
+        <v>2111.71533203125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1321.498779296875</v>
+        <v>2111.8154296875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1336.419677734375</v>
+        <v>2111.649658203125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1344.405029296875</v>
+        <v>2111.561279296875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1352.198120117188</v>
+        <v>2111.37158203125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1368.99755859375</v>
+        <v>2111.271484375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1388.971923828125</v>
+        <v>2111.0576171875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1409.13720703125</v>
+        <v>2110.650390625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1418.018310546875</v>
+        <v>2109.84716796875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1433.72998046875</v>
+        <v>2109.44580078125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1448.267822265625</v>
+        <v>2109.05224609375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1472.873657226562</v>
+        <v>2099.052978515625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1483.267822265625</v>
+        <v>2090.26416015625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1501.945556640625</v>
+        <v>2086.58837890625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1511.63671875</v>
+        <v>2084.88037109375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1529.822875976562</v>
+        <v>2083.6904296875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1542.8818359375</v>
+        <v>2083.361083984375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1585.14306640625</v>
+        <v>2082.62158203125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1595.5341796875</v>
+        <v>2078.8525390625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1622.463134765625</v>
+        <v>2074.4228515625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1656.5185546875</v>
+        <v>2068.849609375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1676.578857421875</v>
+        <v>2056.12060546875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1694.211547851562</v>
+        <v>2040.495361328125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1734.4150390625</v>
+        <v>2036.022583007812</v>
       </c>
       <c r="EX4" t="n">
-        <v>1777.15673828125</v>
+        <v>2023.745849609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1795.254516601562</v>
+        <v>2016.806518554688</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1817.233642578125</v>
+        <v>1998.3115234375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1852.270629882812</v>
+        <v>1986.705078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1866.282958984375</v>
+        <v>1975.74169921875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1908.13818359375</v>
+        <v>1935.539794921875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1972.210693359375</v>
+        <v>1901.970458984375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1993.277221679688</v>
+        <v>1885.196533203125</v>
       </c>
       <c r="FF4" t="n">
-        <v>2006.723022460938</v>
+        <v>1852.718994140625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2035.001953125</v>
+        <v>1841.953002929688</v>
       </c>
       <c r="FH4" t="n">
-        <v>2059.498046875</v>
+        <v>1816.9970703125</v>
       </c>
       <c r="FI4" t="n">
-        <v>2105.792236328125</v>
+        <v>1802.69482421875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2128.645751953125</v>
+        <v>1768.772705078125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2180.78759765625</v>
+        <v>1743.971435546875</v>
       </c>
       <c r="FL4" t="n">
-        <v>2200.19482421875</v>
+        <v>1726.609619140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2222.984375</v>
+        <v>1702.131958007812</v>
       </c>
       <c r="FN4" t="n">
-        <v>2233.349609375</v>
+        <v>1692.945556640625</v>
       </c>
       <c r="FO4" t="n">
-        <v>2242.745361328125</v>
+        <v>1667.37060546875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2263.69384765625</v>
+        <v>1635.360595703125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2285.619873046875</v>
+        <v>1623.07958984375</v>
       </c>
       <c r="FR4" t="n">
-        <v>2309.17529296875</v>
+        <v>1603.157958984375</v>
       </c>
       <c r="FS4" t="n">
-        <v>2336.6474609375</v>
+        <v>1592.49853515625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2361.07763671875</v>
+        <v>1556.190795898438</v>
       </c>
       <c r="FU4" t="n">
-        <v>2370.031005859375</v>
+        <v>1513.36279296875</v>
       </c>
       <c r="FV4" t="n">
-        <v>2385.318359375</v>
+        <v>1486.807373046875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2390.26123046875</v>
+        <v>1432.37060546875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2390.900634765625</v>
+        <v>1414.69287109375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2391.488037109375</v>
+        <v>1386.282836914062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2392.79736328125</v>
+        <v>1371.217651367188</v>
       </c>
       <c r="GA4" t="n">
-        <v>2393.878662109375</v>
+        <v>1337.47314453125</v>
       </c>
       <c r="GB4" t="n">
-        <v>2396.7431640625</v>
+        <v>1321.477783203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2399.989013671875</v>
+        <v>1295.863891601562</v>
       </c>
       <c r="GD4" t="n">
-        <v>2408.4638671875</v>
+        <v>1286.053466796875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2411.6826171875</v>
+        <v>1265.460205078125</v>
       </c>
       <c r="GF4" t="n">
-        <v>2417.64208984375</v>
+        <v>1241.656127929688</v>
       </c>
       <c r="GG4" t="n">
-        <v>2417.203125</v>
+        <v>1229.687622070312</v>
       </c>
       <c r="GH4" t="n">
-        <v>2412.84619140625</v>
+        <v>1202.5517578125</v>
       </c>
       <c r="GI4" t="n">
-        <v>2405.2216796875</v>
+        <v>1177.675537109375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2398.5029296875</v>
+        <v>1164.520874023438</v>
       </c>
       <c r="GK4" t="n">
-        <v>2394.98486328125</v>
+        <v>1135.478759765625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2397.051025390625</v>
+        <v>1105.798828125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2397.71875</v>
+        <v>1073.432250976562</v>
       </c>
       <c r="GN4" t="n">
-        <v>2398.05712890625</v>
+        <v>1052.52783203125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2398.29150390625</v>
+        <v>1013.663452148438</v>
       </c>
       <c r="GP4" t="n">
-        <v>2398.33447265625</v>
+        <v>979.6358032226562</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2393.266845703125</v>
+        <v>960.73388671875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2385.64111328125</v>
+        <v>927.66162109375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2381.7021484375</v>
+        <v>913.8702392578125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2379.541015625</v>
+        <v>901.0435791015625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2376.324462890625</v>
+        <v>876.756591796875</v>
       </c>
       <c r="GV4" t="n">
-        <v>2373.2373046875</v>
+        <v>851.5153198242188</v>
       </c>
       <c r="GW4" t="n">
-        <v>2370.5205078125</v>
+        <v>824.6207275390625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2362.73046875</v>
+        <v>798.6719970703125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2357.81103515625</v>
+        <v>772.86572265625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2357.074951171875</v>
+        <v>748.0013427734375</v>
       </c>
       <c r="HA4" t="n">
-        <v>2356.9814453125</v>
+        <v>708.0076904296875</v>
       </c>
       <c r="HB4" t="n">
-        <v>2356.03466796875</v>
+        <v>681.15380859375</v>
       </c>
       <c r="HC4" t="n">
-        <v>2354.28857421875</v>
+        <v>665.0689697265625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2353.037109375</v>
+        <v>659.2614135742188</v>
       </c>
       <c r="HE4" t="n">
-        <v>2352.197265625</v>
+        <v>657.0670166015625</v>
       </c>
       <c r="HF4" t="n">
-        <v>2350.404296875</v>
+        <v>656.754150390625</v>
       </c>
       <c r="HG4" t="n">
-        <v>2345.47900390625</v>
+        <v>656.679443359375</v>
       </c>
       <c r="HH4" t="n">
-        <v>2344.28515625</v>
+        <v>656.6116333007812</v>
       </c>
       <c r="HI4" t="n">
-        <v>2343.96533203125</v>
+        <v>656.5184326171875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2343.596923828125</v>
+        <v>656.4039306640625</v>
       </c>
       <c r="HK4" t="n">
-        <v>2342.001953125</v>
+        <v>656.2969970703125</v>
       </c>
       <c r="HL4" t="n">
-        <v>2319.833251953125</v>
+        <v>656.168212890625</v>
       </c>
       <c r="HM4" t="n">
-        <v>2300.9873046875</v>
+        <v>654.639404296875</v>
       </c>
       <c r="HN4" t="n">
-        <v>2292.38671875</v>
+        <v>625.6098022460938</v>
       </c>
       <c r="HO4" t="n">
-        <v>2282.8701171875</v>
+        <v>586.6522216796875</v>
       </c>
       <c r="HP4" t="n">
-        <v>2271.917724609375</v>
+        <v>558.670654296875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2264.74755859375</v>
+        <v>546.6294555664062</v>
       </c>
       <c r="HR4" t="n">
-        <v>2251.69384765625</v>
+        <v>545.552978515625</v>
       </c>
       <c r="HS4" t="n">
-        <v>2244.46142578125</v>
+        <v>545.624755859375</v>
       </c>
       <c r="HT4" t="n">
-        <v>2235.721923828125</v>
+        <v>546.2590942382812</v>
       </c>
       <c r="HU4" t="n">
-        <v>2230.55322265625</v>
+        <v>555.541259765625</v>
       </c>
       <c r="HV4" t="n">
-        <v>2226.7763671875</v>
+        <v>577.13916015625</v>
       </c>
       <c r="HW4" t="n">
-        <v>2222.697265625</v>
+        <v>615.26318359375</v>
       </c>
       <c r="HX4" t="n">
-        <v>2221.2080078125</v>
+        <v>675.385986328125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2220.892578125</v>
+        <v>721.142822265625</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2220.750244140625</v>
+        <v>764.6993408203125</v>
       </c>
       <c r="IA4" t="n">
-        <v>2220.6904296875</v>
+        <v>808.1375732421875</v>
       </c>
       <c r="IB4" t="n">
-        <v>2220.680908203125</v>
+        <v>851.7015380859375</v>
       </c>
       <c r="IC4" t="n">
-        <v>2220.67724609375</v>
+        <v>886.7442626953125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2220.68798828125</v>
+        <v>916.299072265625</v>
       </c>
       <c r="IE4" t="n">
-        <v>2223.36376953125</v>
+        <v>939.2730712890625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2227.568359375</v>
+        <v>964.6837158203125</v>
       </c>
       <c r="IG4" t="n">
-        <v>2229.962890625</v>
+        <v>972.448974609375</v>
       </c>
       <c r="IH4" t="n">
-        <v>2232.368896484375</v>
+        <v>973.62841796875</v>
       </c>
       <c r="II4" t="n">
-        <v>2237.0341796875</v>
+        <v>959.0262451171875</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2241.07861328125</v>
+        <v>922.8072509765625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2257.791748046875</v>
+        <v>892.705322265625</v>
       </c>
       <c r="IL4" t="n">
-        <v>2259.20751953125</v>
+        <v>858.962158203125</v>
       </c>
       <c r="IM4" t="n">
-        <v>2266.404052734375</v>
+        <v>824.1910400390625</v>
       </c>
       <c r="IN4" t="n">
-        <v>2282.511474609375</v>
+        <v>758.6278076171875</v>
       </c>
       <c r="IO4" t="n">
-        <v>2287.094482421875</v>
+        <v>732.898681640625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2287.816650390625</v>
+        <v>707.2398071289062</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2298.9267578125</v>
+        <v>672.8341064453125</v>
       </c>
       <c r="IR4" t="n">
-        <v>2316.08984375</v>
+        <v>664.3096313476562</v>
       </c>
       <c r="IS4" t="n">
-        <v>2322.32958984375</v>
+        <v>651.3914794921875</v>
       </c>
       <c r="IT4" t="n">
-        <v>2328.19384765625</v>
+        <v>643.3836669921875</v>
       </c>
       <c r="IU4" t="n">
-        <v>2331.52587890625</v>
+        <v>638.1105346679688</v>
       </c>
       <c r="IV4" t="n">
-        <v>2332.9921875</v>
+        <v>636.601318359375</v>
       </c>
       <c r="IW4" t="n">
-        <v>2334.101806640625</v>
+        <v>636.2896728515625</v>
       </c>
       <c r="IX4" t="n">
-        <v>2336.10888671875</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2336.3095703125</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2336.341796875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2336.36962890625</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2332.9404296875</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2318.93505859375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2311.44677734375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2296.54150390625</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2284.03466796875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2272.38720703125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2266.3515625</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2262.90283203125</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2257.484375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2254.851318359375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2247.8291015625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2244.95703125</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2243.8349609375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2241.79345703125</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2239.22119140625</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2236.57861328125</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2233.1484375</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2224.716552734375</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2218.37841796875</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2214.56689453125</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2214.04638671875</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2213.439453125</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2212.73876953125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2211.65966796875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2210.9619140625</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2210.19287109375</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2209.3505859375</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2208.2080078125</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2207.6728515625</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2207.81396484375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2208.1083984375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2208.787109375</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2214.37646484375</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2221.26123046875</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2228.58544921875</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2228.3369140625</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2227.76318359375</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2226.24169921875</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2224.789794921875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2224.59521484375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2224.58349609375</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2224.625</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2224.6767578125</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2224.77587890625</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2224.9111328125</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2225.13916015625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2225.591796875</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2225.783203125</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2225.90283203125</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2225.916015625</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2225.756591796875</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2225.2900390625</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2215.500732421875</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2200.403564453125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2175.2294921875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2151.4365234375</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2091.723388671875</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2029.677978515625</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1993.8583984375</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1910.531005859375</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1802.626953125</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1715.177490234375</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1659.98193359375</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1607.84619140625</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1551.042236328125</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1502.882202148438</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1423.249145507812</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1325.867553710938</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1254.365112304688</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1177.490356445312</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1045.864013671875</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>977.9680786132812</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>926.3778076171875</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>885.798583984375</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>858.8456420898438</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>831.767578125</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>808.535888671875</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>795.760986328125</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>792.33154296875</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>790.8485717773438</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>790.6600341796875</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>790.65283203125</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>786.8662109375</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>764.97412109375</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>750.9605712890625</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>744.822021484375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>753.1025390625</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>790.1788330078125</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>813.8858642578125</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>867.2337646484375</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>900.032958984375</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>918.2532958984375</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>936.3399658203125</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>938.5237426757812</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>901.1083984375</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>876.912109375</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>831.6270141601562</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>781.626708984375</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>769.115966796875</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>764.5956420898438</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>754.1495971679688</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>736.3663330078125</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>717.0707397460938</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>710.7882080078125</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>710.3484497070312</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>713.60205078125</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>729.8154907226562</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>740.8795776367188</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>750.5205078125</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>764.9185791015625</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>778.0274658203125</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>784.6597900390625</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>785.5723876953125</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>785.6571044921875</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>785.47998046875</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>776.2606201171875</v>
+        <v>636.269287109375</v>
       </c>
     </row>
   </sheetData>
